--- a/Output/past_rev.xlsx
+++ b/Output/past_rev.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="121">
+  <fills count="118">
     <fill>
       <patternFill/>
     </fill>
@@ -44,27 +44,512 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0097CA97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0079BC79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B3D8B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009BCC9B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFD6AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7E1C7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009ACB9A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B7DAB7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBDCBB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DEEDDE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0082C082"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CDE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0087C287"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0075B975"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B9DBB9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008BC48B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2E7D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C8E2C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008FC68F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ACD4AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9EAD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D8EAD8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0081BF81"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0096C996"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B1D7B1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0085C185"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAEBDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0DEC0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007DBD7D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0093C893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ABD4AB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDDCBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5D1A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C3E0C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A2CFA2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCE4CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098CA98"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0E6D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCDCBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDDDBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00A7D2A7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0079BC79"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B3D8B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCDCBC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AFD6AF"/>
+        <fgColor rgb="00A3D0A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008CC58C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B4D8B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C9E3C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CEE5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099CB99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD5AD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A6D2A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B8DAB8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7F1E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008AC48A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009CCD9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BEDDBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0091C791"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBE4CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2D7B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0080BF80"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDECDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0076BA76"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D4E8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009DCD9D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A8D2A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007ABC7A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AED5AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9D3A9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBF3EB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0077BA77"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5F0E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007FBE7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008EC58E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0078BB78"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C1DFC1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4F0E4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090C790"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5D9B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3EFE3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0D6B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0083C083"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFE5CF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A4D0A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AAD3AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C2DFC2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A6D1A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007EBE7E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B6D9B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBEBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BFDEBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009ECE9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088C388"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092C892"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D6E9D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009FCE9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C4E0C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1E6D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0089C389"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0094C994"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0095C995"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A1CFA1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6F1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BADBBA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084C184"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,67 +559,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009ACB9A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B7DAB7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EBF3EB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DEEDDE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0088C388"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0087C287"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0075B975"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B9DBB9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009ECE9E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D2E7D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008FC68F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BBDCBB"/>
+        <fgColor rgb="007CBD7C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFEDDF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2D7B1"/>
       </patternFill>
     </fill>
     <fill>
@@ -144,317 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9EAD9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D8EAD8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007DBD7D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0096C996"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B1D7B1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0093C893"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DAEBDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E1EEE1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A8D2A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C8E2C8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C9E2C8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDDCBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C3E0C3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCE4CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A6D1A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0E6D0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0082C082"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDDDBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C2DFC2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A3D0A3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0DEC0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008CC58C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C9E3C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ADD5AD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CEE5CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0099CB99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D4E8D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C1DFC1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0081BF81"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E7F1E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008AC48A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009CCD9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0091C791"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ABD4AB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A5D1A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B4D8B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CBE4CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E8F2E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0080BF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6E9D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDECDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0085C185"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A9D3A9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0076BA76"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009DCD9D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C7E1C7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009FCE9F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A2CFA2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007FBE7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6E1C6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B8DAB8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AED5AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007ABC7A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5F0E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008EC58E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0090C790"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0078BB78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E4F0E4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B5D9B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E3EFE3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007CBD7C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CFE5CF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0083C083"/>
+        <fgColor rgb="00E2EFE2"/>
       </patternFill>
     </fill>
     <fill>
@@ -464,170 +589,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A6D2A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BADBBA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0077BA77"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007EBE7E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B6D9B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBEBDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BFDEBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009BCC9B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2D7B1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C4E0C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2D7B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D1E6D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0089C389"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A1CFA1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ACD4AC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5E9D5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6F1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0098CA98"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0084C184"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0097CA97"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DFEDDF"/>
+        <fgColor rgb="00E9F2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0CEA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008DC58D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007BBC7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CAE3CA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00E0EEDF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2EFE2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B0D6B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0086C286"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9F2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BEDDBE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A4D0A4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0092C892"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008BC48B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008DC58D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007BBC7B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CAE3CA"/>
       </patternFill>
     </fill>
     <fill>
@@ -654,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -662,123 +649,120 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="117" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="118" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="119" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="115" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="112" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="112" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="120" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="115" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1259,60 +1243,60 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2146.19</v>
+        <v>2187.19</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>2581.83</v>
+        <v>2592.83</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2725.49</v>
+        <v>2777.49</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1930.61</v>
+        <v>1841.34</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>1807.52</v>
+        <v>1768.38</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>1767.35</v>
+        <v>1340.24</v>
       </c>
       <c r="H2" s="8" t="n">
-        <v>2189.27</v>
+        <v>1358.57</v>
       </c>
       <c r="I2" s="9" t="n">
-        <v>2116.54</v>
+        <v>2287.43</v>
       </c>
       <c r="J2" s="10" t="n">
-        <v>2260.62</v>
+        <v>3066.29</v>
       </c>
       <c r="K2" s="11" t="n">
-        <v>2766.73</v>
+        <v>3036.99</v>
       </c>
       <c r="L2" s="12" t="n">
-        <v>2831.61</v>
-      </c>
-      <c r="M2" s="9" t="n">
-        <v>2124.86</v>
-      </c>
-      <c r="N2" s="13" t="n">
-        <v>1699.35</v>
-      </c>
-      <c r="O2" s="14" t="n">
+        <v>2354.59</v>
+      </c>
+      <c r="M2" s="13" t="n">
+        <v>2097.1</v>
+      </c>
+      <c r="N2" s="14" t="n">
+        <v>2393.68</v>
+      </c>
+      <c r="O2" s="15" t="n">
         <v>1892.91</v>
       </c>
-      <c r="P2" s="15" t="n">
+      <c r="P2" s="16" t="n">
         <v>1609.52</v>
       </c>
-      <c r="Q2" s="16" t="n">
+      <c r="Q2" s="17" t="n">
         <v>2057.15</v>
       </c>
-      <c r="R2" s="17" t="n">
+      <c r="R2" s="18" t="n">
         <v>2307.27</v>
       </c>
-      <c r="S2" s="11" t="n">
+      <c r="S2" s="4" t="n">
         <v>2767.96</v>
       </c>
-      <c r="T2" s="18" t="n">
+      <c r="T2" s="15" t="n">
         <v>1908.31</v>
       </c>
       <c r="U2" s="19" t="n">
@@ -1330,25 +1314,27 @@
       <c r="Y2" s="23" t="n">
         <v>2033.26</v>
       </c>
-      <c r="Z2" s="24" t="n">
+      <c r="Z2" s="3" t="n">
         <v>2593.38</v>
       </c>
-      <c r="AA2" s="25" t="n">
+      <c r="AA2" s="17" t="n">
         <v>2048.9</v>
       </c>
-      <c r="AB2" s="26" t="n">
+      <c r="AB2" s="24" t="n">
         <v>1737.8</v>
       </c>
       <c r="AC2" s="20" t="n">
         <v>1272.14</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="25" t="n">
         <v>1700.43</v>
       </c>
-      <c r="AE2" s="27" t="n">
+      <c r="AE2" s="26" t="n">
         <v>2336.67</v>
       </c>
-      <c r="AF2" s="28" t="inlineStr"/>
+      <c r="AF2" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1356,97 +1342,97 @@
           <t>Jul</t>
         </is>
       </c>
-      <c r="B3" s="29" t="n">
+      <c r="B3" s="28" t="n">
         <v>2646.65</v>
       </c>
-      <c r="C3" s="30" t="n">
+      <c r="C3" s="10" t="n">
         <v>2699.5</v>
       </c>
-      <c r="D3" s="31" t="n">
+      <c r="D3" s="29" t="n">
         <v>2286.66</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="30" t="n">
         <v>1726.92</v>
       </c>
-      <c r="F3" s="32" t="n">
+      <c r="F3" s="31" t="n">
         <v>1391.08</v>
       </c>
-      <c r="G3" s="20" t="n">
+      <c r="G3" s="32" t="n">
         <v>1276.18</v>
       </c>
       <c r="H3" s="33" t="n">
         <v>1917.72</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" s="34" t="n">
         <v>2688.52</v>
       </c>
-      <c r="J3" s="34" t="n">
+      <c r="J3" s="15" t="n">
         <v>2147.39</v>
       </c>
       <c r="K3" s="35" t="n">
         <v>1301.5</v>
       </c>
-      <c r="L3" s="21" t="n">
+      <c r="L3" s="27" t="n">
         <v>1229.67</v>
       </c>
-      <c r="M3" s="19" t="n">
+      <c r="M3" s="36" t="n">
         <v>1445.78</v>
       </c>
-      <c r="N3" s="36" t="n">
+      <c r="N3" s="37" t="n">
         <v>1680.3</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="O3" s="38" t="n">
         <v>1668.45</v>
       </c>
-      <c r="P3" s="37" t="n">
+      <c r="P3" s="39" t="n">
         <v>2595.91</v>
       </c>
-      <c r="Q3" s="38" t="n">
+      <c r="Q3" s="40" t="n">
         <v>2539.37</v>
       </c>
-      <c r="R3" s="39" t="n">
+      <c r="R3" s="21" t="n">
         <v>1811.27</v>
       </c>
-      <c r="S3" s="40" t="n">
+      <c r="S3" s="41" t="n">
         <v>1712.93</v>
       </c>
-      <c r="T3" s="40" t="n">
+      <c r="T3" s="41" t="n">
         <v>1716.23</v>
       </c>
-      <c r="U3" s="41" t="n">
+      <c r="U3" s="24" t="n">
         <v>2061.14</v>
       </c>
-      <c r="V3" s="42" t="n">
+      <c r="V3" s="17" t="n">
         <v>2207.14</v>
       </c>
-      <c r="W3" s="43" t="n">
+      <c r="W3" s="42" t="n">
         <v>2446.6</v>
       </c>
-      <c r="X3" s="11" t="n">
+      <c r="X3" s="43" t="n">
         <v>2630.78</v>
       </c>
-      <c r="Y3" s="22" t="n">
+      <c r="Y3" s="44" t="n">
         <v>1737.72</v>
       </c>
-      <c r="Z3" s="44" t="n">
+      <c r="Z3" s="45" t="n">
         <v>1588.34</v>
       </c>
-      <c r="AA3" s="15" t="n">
+      <c r="AA3" s="46" t="n">
         <v>1579.49</v>
       </c>
-      <c r="AB3" s="45" t="n">
+      <c r="AB3" s="47" t="n">
         <v>1465.46</v>
       </c>
-      <c r="AC3" s="46" t="n">
+      <c r="AC3" s="48" t="n">
         <v>1650.94</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="34" t="n">
         <v>2693.21</v>
       </c>
-      <c r="AE3" s="47" t="n">
+      <c r="AE3" s="49" t="n">
         <v>2621.04</v>
       </c>
-      <c r="AF3" s="48" t="n">
+      <c r="AF3" s="50" t="n">
         <v>1800.17</v>
       </c>
     </row>
@@ -1456,97 +1442,97 @@
           <t>Aug</t>
         </is>
       </c>
-      <c r="B4" s="49" t="n">
+      <c r="B4" s="19" t="n">
         <v>1852.92</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="51" t="n">
         <v>1759.69</v>
       </c>
-      <c r="D4" s="50" t="n">
+      <c r="D4" s="52" t="n">
         <v>1903.54</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="53" t="n">
         <v>1923.05</v>
       </c>
-      <c r="F4" s="51" t="n">
+      <c r="F4" s="54" t="n">
         <v>2491.5</v>
       </c>
-      <c r="G4" s="43" t="n">
+      <c r="G4" s="42" t="n">
         <v>2522.73</v>
       </c>
-      <c r="H4" s="52" t="n">
+      <c r="H4" s="55" t="n">
         <v>1472.18</v>
       </c>
-      <c r="I4" s="53" t="n">
+      <c r="I4" s="56" t="n">
         <v>1323.9</v>
       </c>
-      <c r="J4" s="46" t="n">
+      <c r="J4" s="48" t="n">
         <v>1497.2</v>
       </c>
       <c r="K4" s="33" t="n">
         <v>1834.26</v>
       </c>
-      <c r="L4" s="54" t="n">
+      <c r="L4" s="57" t="n">
         <v>1825.26</v>
       </c>
-      <c r="M4" s="55" t="n">
+      <c r="M4" s="58" t="n">
         <v>2652.47</v>
       </c>
-      <c r="N4" s="56" t="n">
+      <c r="N4" s="59" t="n">
         <v>2808.13</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="O4" s="30" t="n">
         <v>1598.9</v>
       </c>
-      <c r="P4" s="57" t="n">
+      <c r="P4" s="60" t="n">
         <v>1812.47</v>
       </c>
-      <c r="Q4" s="58" t="n">
+      <c r="Q4" s="61" t="n">
         <v>1662.45</v>
       </c>
-      <c r="R4" s="18" t="n">
+      <c r="R4" s="51" t="n">
         <v>1761.84</v>
       </c>
-      <c r="S4" s="59" t="n">
+      <c r="S4" s="62" t="n">
         <v>1870.79</v>
       </c>
-      <c r="T4" s="55" t="n">
+      <c r="T4" s="58" t="n">
         <v>2645.32</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="34" t="n">
         <v>2861.92</v>
       </c>
-      <c r="V4" s="53" t="n">
+      <c r="V4" s="56" t="n">
         <v>1337.89</v>
       </c>
-      <c r="W4" s="13" t="n">
+      <c r="W4" s="38" t="n">
         <v>1532.95</v>
       </c>
-      <c r="X4" s="25" t="n">
+      <c r="X4" s="53" t="n">
         <v>1933.79</v>
       </c>
-      <c r="Y4" s="26" t="n">
+      <c r="Y4" s="63" t="n">
         <v>1579.15</v>
       </c>
-      <c r="Z4" s="58" t="n">
+      <c r="Z4" s="61" t="n">
         <v>1657.42</v>
       </c>
-      <c r="AA4" s="34" t="n">
+      <c r="AA4" s="15" t="n">
         <v>2145.63</v>
       </c>
-      <c r="AB4" s="27" t="n">
+      <c r="AB4" s="64" t="n">
         <v>2273.62</v>
       </c>
-      <c r="AC4" s="46" t="n">
+      <c r="AC4" s="48" t="n">
         <v>1496.68</v>
       </c>
-      <c r="AD4" s="21" t="n">
+      <c r="AD4" s="27" t="n">
         <v>953.0600000000001</v>
       </c>
-      <c r="AE4" s="60" t="n">
+      <c r="AE4" s="65" t="n">
         <v>1446.57</v>
       </c>
-      <c r="AF4" s="61" t="n">
+      <c r="AF4" s="66" t="n">
         <v>1476.74</v>
       </c>
     </row>
@@ -1556,97 +1542,99 @@
           <t>Sep</t>
         </is>
       </c>
-      <c r="B5" s="62" t="n">
+      <c r="B5" s="13" t="n">
         <v>1964.37</v>
       </c>
-      <c r="C5" s="63" t="n">
+      <c r="C5" s="67" t="n">
         <v>2346.49</v>
       </c>
-      <c r="D5" s="64" t="n">
+      <c r="D5" s="68" t="n">
         <v>2490.84</v>
       </c>
-      <c r="E5" s="65" t="n">
+      <c r="E5" s="15" t="n">
         <v>1795.5</v>
       </c>
-      <c r="F5" s="21" t="n">
+      <c r="F5" s="33" t="n">
         <v>1346.66</v>
       </c>
-      <c r="G5" s="21" t="n">
+      <c r="G5" s="33" t="n">
         <v>1342.32</v>
       </c>
-      <c r="H5" s="66" t="n">
+      <c r="H5" s="62" t="n">
         <v>1383.99</v>
       </c>
-      <c r="I5" s="67" t="n">
+      <c r="I5" s="23" t="n">
         <v>1891.87</v>
       </c>
-      <c r="J5" s="68" t="n">
+      <c r="J5" s="43" t="n">
         <v>2761.61</v>
       </c>
       <c r="K5" s="69" t="n">
         <v>2636.78</v>
       </c>
-      <c r="L5" s="48" t="n">
+      <c r="L5" s="13" t="n">
         <v>1938.45</v>
       </c>
-      <c r="M5" s="53" t="n">
+      <c r="M5" s="6" t="n">
         <v>1647.99</v>
       </c>
-      <c r="N5" s="45" t="n">
+      <c r="N5" s="25" t="n">
         <v>1594.06</v>
       </c>
       <c r="O5" s="70" t="n">
         <v>1697.6</v>
       </c>
-      <c r="P5" s="71" t="n">
+      <c r="P5" s="22" t="n">
         <v>1674.78</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="10" t="n">
         <v>2882.21</v>
       </c>
-      <c r="R5" s="56" t="n">
+      <c r="R5" s="11" t="n">
         <v>2838.72</v>
       </c>
-      <c r="S5" s="41" t="n">
+      <c r="S5" s="12" t="n">
         <v>2217.78</v>
       </c>
-      <c r="T5" s="52" t="n">
+      <c r="T5" s="71" t="n">
         <v>1759.17</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="U5" s="23" t="n">
         <v>1900.21</v>
       </c>
-      <c r="V5" s="67" t="n">
+      <c r="V5" s="72" t="n">
         <v>1884.88</v>
       </c>
-      <c r="W5" s="8" t="n">
+      <c r="W5" s="14" t="n">
         <v>2262.17</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="X5" s="28" t="n">
         <v>2778.41</v>
       </c>
-      <c r="Y5" s="72" t="n">
+      <c r="Y5" s="34" t="n">
         <v>2865.29</v>
       </c>
-      <c r="Z5" s="17" t="n">
+      <c r="Z5" s="73" t="n">
         <v>2389.71</v>
       </c>
-      <c r="AA5" s="73" t="n">
+      <c r="AA5" s="18" t="n">
         <v>2169.62</v>
       </c>
-      <c r="AB5" s="2" t="n">
+      <c r="AB5" s="12" t="n">
         <v>2225.24</v>
       </c>
-      <c r="AC5" s="23" t="n">
+      <c r="AC5" s="74" t="n">
         <v>2118.74</v>
       </c>
-      <c r="AD5" s="27" t="n">
+      <c r="AD5" s="73" t="n">
         <v>2403.24</v>
       </c>
-      <c r="AE5" s="74" t="n">
+      <c r="AE5" s="75" t="n">
         <v>2682.71</v>
       </c>
-      <c r="AF5" s="28" t="inlineStr"/>
+      <c r="AF5" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1654,52 +1642,52 @@
           <t>Oct</t>
         </is>
       </c>
-      <c r="B6" s="25" t="n">
+      <c r="B6" s="53" t="n">
         <v>2728.29</v>
       </c>
-      <c r="C6" s="71" t="n">
+      <c r="C6" s="76" t="n">
         <v>1527.88</v>
       </c>
-      <c r="D6" s="19" t="n">
+      <c r="D6" s="36" t="n">
         <v>1244.03</v>
       </c>
-      <c r="E6" s="60" t="n">
+      <c r="E6" s="65" t="n">
         <v>1702.41</v>
       </c>
-      <c r="F6" s="46" t="n">
+      <c r="F6" s="48" t="n">
         <v>1799.99</v>
       </c>
-      <c r="G6" s="42" t="n">
+      <c r="G6" s="17" t="n">
         <v>3338.04</v>
       </c>
-      <c r="H6" s="75" t="n">
+      <c r="H6" s="77" t="n">
         <v>4299.6</v>
       </c>
-      <c r="I6" s="75" t="n">
+      <c r="I6" s="77" t="n">
         <v>4299.6</v>
       </c>
-      <c r="J6" s="50" t="n">
+      <c r="J6" s="52" t="n">
         <v>2660.13</v>
       </c>
-      <c r="K6" s="45" t="n">
+      <c r="K6" s="47" t="n">
         <v>1311.81</v>
       </c>
-      <c r="L6" s="76" t="n">
+      <c r="L6" s="78" t="n">
         <v>930.9400000000001</v>
       </c>
-      <c r="M6" s="15" t="n">
+      <c r="M6" s="46" t="n">
         <v>1622.68</v>
       </c>
-      <c r="N6" s="42" t="n">
+      <c r="N6" s="17" t="n">
         <v>3331.39</v>
       </c>
-      <c r="O6" s="77" t="n">
+      <c r="O6" s="4" t="n">
         <v>4262.4</v>
       </c>
-      <c r="P6" s="30" t="n">
+      <c r="P6" s="10" t="n">
         <v>4659.92</v>
       </c>
-      <c r="Q6" s="78" t="n">
+      <c r="Q6" s="70" t="n">
         <v>3015</v>
       </c>
       <c r="R6" s="79" t="n">
@@ -1708,25 +1696,25 @@
       <c r="S6" s="80" t="n">
         <v>1552</v>
       </c>
-      <c r="T6" s="46" t="n">
+      <c r="T6" s="48" t="n">
         <v>1817.31</v>
       </c>
       <c r="U6" s="81" t="n">
         <v>3169.31</v>
       </c>
-      <c r="V6" s="74" t="n">
+      <c r="V6" s="82" t="n">
         <v>4145.96</v>
       </c>
-      <c r="W6" s="4" t="n">
+      <c r="W6" s="75" t="n">
         <v>4388.96</v>
       </c>
-      <c r="X6" s="82" t="n">
+      <c r="X6" s="83" t="n">
         <v>2609.16</v>
       </c>
       <c r="Y6" s="79" t="n">
         <v>1378</v>
       </c>
-      <c r="Z6" s="21" t="n">
+      <c r="Z6" s="27" t="n">
         <v>674</v>
       </c>
       <c r="AA6" s="79" t="n">
@@ -1735,16 +1723,16 @@
       <c r="AB6" s="33" t="n">
         <v>2519</v>
       </c>
-      <c r="AC6" s="83" t="n">
+      <c r="AC6" s="84" t="n">
         <v>3858</v>
       </c>
-      <c r="AD6" s="43" t="n">
+      <c r="AD6" s="42" t="n">
         <v>3957</v>
       </c>
-      <c r="AE6" s="84" t="n">
+      <c r="AE6" s="85" t="n">
         <v>2182</v>
       </c>
-      <c r="AF6" s="85" t="n">
+      <c r="AF6" s="86" t="n">
         <v>1074</v>
       </c>
     </row>
@@ -1754,97 +1742,99 @@
           <t>Nov</t>
         </is>
       </c>
-      <c r="B7" s="86" t="n">
+      <c r="B7" s="37" t="n">
         <v>1081</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="38" t="n">
         <v>1060</v>
       </c>
       <c r="D7" s="87" t="n">
         <v>1265</v>
       </c>
-      <c r="E7" s="78" t="n">
+      <c r="E7" s="88" t="n">
         <v>2496.12</v>
       </c>
-      <c r="F7" s="88" t="n">
+      <c r="F7" s="13" t="n">
         <v>2359.67</v>
       </c>
-      <c r="G7" s="32" t="n">
+      <c r="G7" s="85" t="n">
         <v>1332.86</v>
       </c>
-      <c r="H7" s="86" t="n">
+      <c r="H7" s="37" t="n">
         <v>1092.77</v>
       </c>
-      <c r="I7" s="53" t="n">
+      <c r="I7" s="8" t="n">
         <v>1540.06</v>
       </c>
-      <c r="J7" s="89" t="n">
+      <c r="J7" s="16" t="n">
         <v>1842.56</v>
       </c>
-      <c r="K7" s="9" t="n">
+      <c r="K7" s="64" t="n">
         <v>2427.23</v>
       </c>
-      <c r="L7" s="90" t="n">
+      <c r="L7" s="43" t="n">
         <v>3370.15</v>
       </c>
-      <c r="M7" s="30" t="n">
+      <c r="M7" s="10" t="n">
         <v>3511.04</v>
       </c>
-      <c r="N7" s="91" t="n">
+      <c r="N7" s="88" t="n">
         <v>2489.06</v>
       </c>
-      <c r="O7" s="39" t="n">
+      <c r="O7" s="6" t="n">
         <v>2026.77</v>
       </c>
-      <c r="P7" s="16" t="n">
+      <c r="P7" s="17" t="n">
         <v>2339.44</v>
       </c>
-      <c r="Q7" s="33" t="n">
+      <c r="Q7" s="15" t="n">
         <v>2192.86</v>
       </c>
-      <c r="R7" s="82" t="n">
+      <c r="R7" s="89" t="n">
         <v>2259.83</v>
       </c>
-      <c r="S7" s="42" t="n">
+      <c r="S7" s="26" t="n">
         <v>2687.43</v>
       </c>
-      <c r="T7" s="81" t="n">
+      <c r="T7" s="74" t="n">
         <v>2596.83</v>
       </c>
-      <c r="U7" s="92" t="n">
+      <c r="U7" s="51" t="n">
         <v>1501.58</v>
       </c>
-      <c r="V7" s="93" t="n">
+      <c r="V7" s="90" t="n">
         <v>1400.94</v>
       </c>
-      <c r="W7" s="87" t="n">
+      <c r="W7" s="91" t="n">
         <v>1250.94</v>
       </c>
-      <c r="X7" s="85" t="n">
+      <c r="X7" s="61" t="n">
         <v>1297.78</v>
       </c>
-      <c r="Y7" s="46" t="n">
+      <c r="Y7" s="92" t="n">
         <v>1756.93</v>
       </c>
-      <c r="Z7" s="25" t="n">
+      <c r="Z7" s="23" t="n">
         <v>2306.3</v>
       </c>
-      <c r="AA7" s="94" t="n">
+      <c r="AA7" s="70" t="n">
         <v>2065.47</v>
       </c>
-      <c r="AB7" s="21" t="n">
+      <c r="AB7" s="38" t="n">
         <v>1056.47</v>
       </c>
-      <c r="AC7" s="95" t="n">
+      <c r="AC7" s="90" t="n">
         <v>1423.04</v>
       </c>
-      <c r="AD7" s="32" t="n">
+      <c r="AD7" s="85" t="n">
         <v>1332.66</v>
       </c>
-      <c r="AE7" s="45" t="n">
+      <c r="AE7" s="93" t="n">
         <v>1453.6</v>
       </c>
-      <c r="AF7" s="28" t="inlineStr"/>
+      <c r="AF7" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1852,97 +1842,97 @@
           <t>Dec</t>
         </is>
       </c>
-      <c r="B8" s="27" t="n">
+      <c r="B8" s="64" t="n">
         <v>2013.82</v>
       </c>
-      <c r="C8" s="96" t="n">
+      <c r="C8" s="14" t="n">
         <v>2167.28</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="75" t="n">
         <v>2413.05</v>
       </c>
-      <c r="E8" s="70" t="n">
+      <c r="E8" s="94" t="n">
         <v>1245.1</v>
       </c>
-      <c r="F8" s="44" t="n">
+      <c r="F8" s="45" t="n">
         <v>1267.94</v>
       </c>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="53" t="n">
         <v>1708.6</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="6" t="n">
         <v>1816.3</v>
       </c>
-      <c r="I8" s="97" t="n">
+      <c r="I8" s="23" t="n">
         <v>1957.34</v>
       </c>
-      <c r="J8" s="96" t="n">
+      <c r="J8" s="14" t="n">
         <v>2172.97</v>
       </c>
-      <c r="K8" s="98" t="n">
+      <c r="K8" s="95" t="n">
         <v>2178.52</v>
       </c>
-      <c r="L8" s="16" t="n">
+      <c r="L8" s="96" t="n">
         <v>1728.45</v>
       </c>
-      <c r="M8" s="62" t="n">
+      <c r="M8" s="90" t="n">
         <v>1528.1</v>
       </c>
-      <c r="N8" s="22" t="n">
+      <c r="N8" s="44" t="n">
         <v>1431.96</v>
       </c>
-      <c r="O8" s="70" t="n">
+      <c r="O8" s="94" t="n">
         <v>1235.86</v>
       </c>
-      <c r="P8" s="52" t="n">
+      <c r="P8" s="55" t="n">
         <v>1299.45</v>
       </c>
-      <c r="Q8" s="39" t="n">
+      <c r="Q8" s="21" t="n">
         <v>1515.59</v>
       </c>
-      <c r="R8" s="42" t="n">
+      <c r="R8" s="17" t="n">
         <v>1966.61</v>
       </c>
-      <c r="S8" s="18" t="n">
+      <c r="S8" s="51" t="n">
         <v>1566.94</v>
       </c>
-      <c r="T8" s="45" t="n">
+      <c r="T8" s="47" t="n">
         <v>1122.85</v>
       </c>
-      <c r="U8" s="99" t="n">
+      <c r="U8" s="97" t="n">
         <v>924.2</v>
       </c>
-      <c r="V8" s="100" t="n">
+      <c r="V8" s="98" t="n">
         <v>1060.46</v>
       </c>
-      <c r="W8" s="48" t="n">
+      <c r="W8" s="50" t="n">
         <v>1498.91</v>
       </c>
-      <c r="X8" s="101" t="n">
+      <c r="X8" s="99" t="n">
         <v>1199.33</v>
       </c>
-      <c r="Y8" s="102" t="n">
+      <c r="Y8" s="7" t="n">
         <v>1585.29</v>
       </c>
-      <c r="Z8" s="103" t="n">
+      <c r="Z8" s="100" t="n">
         <v>889.1899999999999</v>
       </c>
-      <c r="AA8" s="21" t="n">
+      <c r="AA8" s="27" t="n">
         <v>853.99</v>
       </c>
-      <c r="AB8" s="99" t="n">
+      <c r="AB8" s="97" t="n">
         <v>930.4</v>
       </c>
-      <c r="AC8" s="60" t="n">
+      <c r="AC8" s="65" t="n">
         <v>1286.89</v>
       </c>
-      <c r="AD8" s="94" t="n">
+      <c r="AD8" s="93" t="n">
         <v>1536.4</v>
       </c>
-      <c r="AE8" s="11" t="n">
+      <c r="AE8" s="43" t="n">
         <v>2451.1</v>
       </c>
-      <c r="AF8" s="12" t="n">
+      <c r="AF8" s="34" t="n">
         <v>2528.23</v>
       </c>
     </row>
@@ -1952,97 +1942,97 @@
           <t>Jan</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="8" t="n">
         <v>1599.57</v>
       </c>
-      <c r="C9" s="94" t="n">
+      <c r="C9" s="93" t="n">
         <v>1549.11</v>
       </c>
-      <c r="D9" s="104" t="n">
+      <c r="D9" s="101" t="n">
         <v>1217.86</v>
       </c>
-      <c r="E9" s="62" t="n">
+      <c r="E9" s="90" t="n">
         <v>1523.08</v>
       </c>
-      <c r="F9" s="105" t="n">
+      <c r="F9" s="102" t="n">
         <v>2132.95</v>
       </c>
-      <c r="G9" s="106" t="n">
+      <c r="G9" s="26" t="n">
         <v>2255.47</v>
       </c>
-      <c r="H9" s="96" t="n">
+      <c r="H9" s="14" t="n">
         <v>2296.76</v>
       </c>
-      <c r="I9" s="36" t="n">
+      <c r="I9" s="37" t="n">
         <v>1332.12</v>
       </c>
-      <c r="J9" s="104" t="n">
+      <c r="J9" s="101" t="n">
         <v>1217.88</v>
       </c>
-      <c r="K9" s="104" t="n">
+      <c r="K9" s="101" t="n">
         <v>1227.79</v>
       </c>
-      <c r="L9" s="7" t="n">
+      <c r="L9" s="30" t="n">
         <v>1400.66</v>
       </c>
-      <c r="M9" s="16" t="n">
+      <c r="M9" s="96" t="n">
         <v>1767.97</v>
       </c>
-      <c r="N9" s="38" t="n">
+      <c r="N9" s="40" t="n">
         <v>2528.91</v>
       </c>
-      <c r="O9" s="107" t="n">
+      <c r="O9" s="103" t="n">
         <v>2702.44</v>
       </c>
-      <c r="P9" s="78" t="n">
+      <c r="P9" s="70" t="n">
         <v>1901.71</v>
       </c>
-      <c r="Q9" s="48" t="n">
+      <c r="Q9" s="50" t="n">
         <v>1492.6</v>
       </c>
-      <c r="R9" s="45" t="n">
+      <c r="R9" s="47" t="n">
         <v>1036.32</v>
       </c>
-      <c r="S9" s="32" t="n">
+      <c r="S9" s="31" t="n">
         <v>942.85</v>
       </c>
-      <c r="T9" s="67" t="n">
+      <c r="T9" s="91" t="n">
         <v>1431.18</v>
       </c>
-      <c r="U9" s="25" t="n">
+      <c r="U9" s="53" t="n">
         <v>1755.35</v>
       </c>
-      <c r="V9" s="108" t="n">
+      <c r="V9" s="2" t="n">
         <v>2159.82</v>
       </c>
-      <c r="W9" s="19" t="n">
+      <c r="W9" s="36" t="n">
         <v>1007.45</v>
       </c>
-      <c r="X9" s="109" t="n">
+      <c r="X9" s="104" t="n">
         <v>859.77</v>
       </c>
-      <c r="Y9" s="21" t="n">
+      <c r="Y9" s="27" t="n">
         <v>709.8099999999999</v>
       </c>
-      <c r="Z9" s="32" t="n">
+      <c r="Z9" s="31" t="n">
         <v>940.33</v>
       </c>
-      <c r="AA9" s="110" t="n">
+      <c r="AA9" s="71" t="n">
         <v>1956.17</v>
       </c>
-      <c r="AB9" s="30" t="n">
+      <c r="AB9" s="10" t="n">
         <v>2741.1</v>
       </c>
-      <c r="AC9" s="77" t="n">
+      <c r="AC9" s="4" t="n">
         <v>2549.49</v>
       </c>
-      <c r="AD9" s="73" t="n">
+      <c r="AD9" s="105" t="n">
         <v>1799.21</v>
       </c>
-      <c r="AE9" s="19" t="n">
+      <c r="AE9" s="36" t="n">
         <v>1003.05</v>
       </c>
-      <c r="AF9" s="111" t="n">
+      <c r="AF9" s="106" t="n">
         <v>975.8100000000001</v>
       </c>
     </row>
@@ -2052,93 +2042,99 @@
           <t>Feb</t>
         </is>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="93" t="n">
         <v>1165.21</v>
       </c>
-      <c r="C10" s="101" t="n">
+      <c r="C10" s="105" t="n">
         <v>1514.11</v>
       </c>
-      <c r="D10" s="41" t="n">
+      <c r="D10" s="9" t="n">
         <v>2100.82</v>
       </c>
-      <c r="E10" s="38" t="n">
+      <c r="E10" s="75" t="n">
         <v>2641.99</v>
       </c>
-      <c r="F10" s="53" t="n">
+      <c r="F10" s="16" t="n">
         <v>1485.32</v>
       </c>
-      <c r="G10" s="65" t="n">
+      <c r="G10" s="22" t="n">
         <v>1646.96</v>
       </c>
-      <c r="H10" s="79" t="n">
+      <c r="H10" s="53" t="n">
         <v>1450.48</v>
       </c>
-      <c r="I10" s="60" t="n">
+      <c r="I10" s="24" t="n">
         <v>1594.93</v>
       </c>
-      <c r="J10" s="102" t="n">
+      <c r="J10" s="17" t="n">
         <v>1886</v>
       </c>
-      <c r="K10" s="112" t="n">
+      <c r="K10" s="68" t="n">
         <v>2439.54</v>
       </c>
-      <c r="L10" s="30" t="n">
+      <c r="L10" s="10" t="n">
         <v>2820.3</v>
       </c>
-      <c r="M10" s="26" t="n">
+      <c r="M10" s="107" t="n">
         <v>1700.08</v>
       </c>
-      <c r="N10" s="53" t="n">
+      <c r="N10" s="16" t="n">
         <v>1498.16</v>
       </c>
-      <c r="O10" s="46" t="n">
+      <c r="O10" s="22" t="n">
         <v>1641.12</v>
       </c>
-      <c r="P10" s="70" t="n">
+      <c r="P10" s="25" t="n">
         <v>1550.53</v>
       </c>
-      <c r="Q10" s="94" t="n">
+      <c r="Q10" s="72" t="n">
         <v>1840.42</v>
       </c>
-      <c r="R10" s="113" t="n">
+      <c r="R10" s="69" t="n">
         <v>2588.75</v>
       </c>
-      <c r="S10" s="51" t="n">
+      <c r="S10" s="58" t="n">
         <v>2505.78</v>
       </c>
-      <c r="T10" s="73" t="n">
+      <c r="T10" s="29" t="n">
         <v>2047.98</v>
       </c>
-      <c r="U10" s="45" t="n">
+      <c r="U10" s="92" t="n">
         <v>1423.86</v>
       </c>
-      <c r="V10" s="93" t="n">
+      <c r="V10" s="52" t="n">
         <v>1396.24</v>
       </c>
-      <c r="W10" s="95" t="n">
+      <c r="W10" s="92" t="n">
         <v>1412.21</v>
       </c>
-      <c r="X10" s="65" t="n">
+      <c r="X10" s="22" t="n">
         <v>1650.95</v>
       </c>
-      <c r="Y10" s="113" t="n">
+      <c r="Y10" s="69" t="n">
         <v>2596.89</v>
       </c>
-      <c r="Z10" s="24" t="n">
+      <c r="Z10" s="69" t="n">
         <v>2581.61</v>
       </c>
-      <c r="AA10" s="84" t="n">
+      <c r="AA10" s="108" t="n">
         <v>1795.81</v>
       </c>
-      <c r="AB10" s="109" t="n">
+      <c r="AB10" s="57" t="n">
         <v>1283.44</v>
       </c>
-      <c r="AC10" s="79" t="n">
+      <c r="AC10" s="96" t="n">
         <v>1458.54</v>
       </c>
-      <c r="AD10" s="28" t="inlineStr"/>
-      <c r="AE10" s="28" t="inlineStr"/>
-      <c r="AF10" s="28" t="inlineStr"/>
+      <c r="AD10" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2146,97 +2142,97 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B11" s="32" t="n">
+      <c r="B11" s="31" t="n">
         <v>1544.81</v>
       </c>
-      <c r="C11" s="95" t="n">
+      <c r="C11" s="109" t="n">
         <v>1743.87</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="38" t="n">
         <v>2382.2</v>
       </c>
-      <c r="E11" s="48" t="n">
+      <c r="E11" s="50" t="n">
         <v>2767.42</v>
       </c>
-      <c r="F11" s="60" t="n">
+      <c r="F11" s="65" t="n">
         <v>2210.8</v>
       </c>
-      <c r="G11" s="71" t="n">
+      <c r="G11" s="76" t="n">
         <v>2016.15</v>
       </c>
-      <c r="H11" s="100" t="n">
+      <c r="H11" s="98" t="n">
         <v>1603.56</v>
       </c>
-      <c r="I11" s="70" t="n">
+      <c r="I11" s="94" t="n">
         <v>2077.22</v>
       </c>
-      <c r="J11" s="16" t="n">
+      <c r="J11" s="96" t="n">
         <v>3380</v>
       </c>
-      <c r="K11" s="107" t="n">
+      <c r="K11" s="103" t="n">
         <v>5409</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="34" t="n">
         <v>5498</v>
       </c>
-      <c r="M11" s="97" t="n">
+      <c r="M11" s="23" t="n">
         <v>3980</v>
       </c>
-      <c r="N11" s="54" t="n">
+      <c r="N11" s="57" t="n">
         <v>3096</v>
       </c>
-      <c r="O11" s="39" t="n">
+      <c r="O11" s="21" t="n">
         <v>2811</v>
       </c>
-      <c r="P11" s="39" t="n">
+      <c r="P11" s="21" t="n">
         <v>2810.45</v>
       </c>
-      <c r="Q11" s="110" t="n">
+      <c r="Q11" s="71" t="n">
         <v>3764.7</v>
       </c>
-      <c r="R11" s="68" t="n">
+      <c r="R11" s="69" t="n">
         <v>5130.83</v>
       </c>
-      <c r="S11" s="114" t="n">
+      <c r="S11" s="73" t="n">
         <v>4760.35</v>
       </c>
-      <c r="T11" s="13" t="n">
+      <c r="T11" s="38" t="n">
         <v>2391.05</v>
       </c>
-      <c r="U11" s="21" t="n">
+      <c r="U11" s="27" t="n">
         <v>1057.05</v>
       </c>
-      <c r="V11" s="86" t="n">
+      <c r="V11" s="110" t="n">
         <v>1123.21</v>
       </c>
-      <c r="W11" s="71" t="n">
+      <c r="W11" s="76" t="n">
         <v>2013.88</v>
       </c>
-      <c r="X11" s="26" t="n">
+      <c r="X11" s="63" t="n">
         <v>2487.2</v>
       </c>
-      <c r="Y11" s="18" t="n">
+      <c r="Y11" s="51" t="n">
         <v>2964.8</v>
       </c>
-      <c r="Z11" s="18" t="n">
+      <c r="Z11" s="51" t="n">
         <v>2963.76</v>
       </c>
       <c r="AA11" s="80" t="n">
         <v>2039.38</v>
       </c>
-      <c r="AB11" s="70" t="n">
+      <c r="AB11" s="94" t="n">
         <v>2078.52</v>
       </c>
       <c r="AC11" s="80" t="n">
         <v>2044.33</v>
       </c>
-      <c r="AD11" s="26" t="n">
+      <c r="AD11" s="63" t="n">
         <v>2493.45</v>
       </c>
-      <c r="AE11" s="52" t="n">
+      <c r="AE11" s="55" t="n">
         <v>2252.55</v>
       </c>
-      <c r="AF11" s="48" t="n">
+      <c r="AF11" s="50" t="n">
         <v>2763.49</v>
       </c>
     </row>
@@ -2246,97 +2242,99 @@
           <t>Apr</t>
         </is>
       </c>
-      <c r="B12" s="69" t="n">
+      <c r="B12" s="40" t="n">
         <v>2785.23</v>
       </c>
-      <c r="C12" s="25" t="n">
+      <c r="C12" s="13" t="n">
         <v>2119.07</v>
       </c>
-      <c r="D12" s="65" t="n">
+      <c r="D12" s="111" t="n">
         <v>1685.46</v>
       </c>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="6" t="n">
         <v>1789.18</v>
       </c>
-      <c r="F12" s="67" t="n">
+      <c r="F12" s="22" t="n">
         <v>1809.45</v>
       </c>
-      <c r="G12" s="115" t="n">
+      <c r="G12" s="88" t="n">
         <v>2183.22</v>
       </c>
-      <c r="H12" s="113" t="n">
+      <c r="H12" s="77" t="n">
         <v>2830.51</v>
       </c>
-      <c r="I12" s="97" t="n">
+      <c r="I12" s="14" t="n">
         <v>2427.86</v>
       </c>
-      <c r="J12" s="36" t="n">
+      <c r="J12" s="112" t="n">
         <v>1724.51</v>
       </c>
-      <c r="K12" s="21" t="n">
+      <c r="K12" s="91" t="n">
         <v>1097.92</v>
       </c>
-      <c r="L12" s="15" t="n">
+      <c r="L12" s="92" t="n">
         <v>1572.46</v>
       </c>
-      <c r="M12" s="94" t="n">
+      <c r="M12" s="15" t="n">
         <v>1926.88</v>
       </c>
-      <c r="N12" s="10" t="n">
+      <c r="N12" s="12" t="n">
         <v>2385.46</v>
       </c>
-      <c r="O12" s="72" t="n">
+      <c r="O12" s="34" t="n">
         <v>3079.85</v>
       </c>
-      <c r="P12" s="30" t="n">
+      <c r="P12" s="10" t="n">
         <v>3104.01</v>
       </c>
-      <c r="Q12" s="64" t="n">
+      <c r="Q12" s="113" t="n">
         <v>2602.41</v>
       </c>
-      <c r="R12" s="57" t="n">
+      <c r="R12" s="89" t="n">
         <v>2002.03</v>
       </c>
-      <c r="S12" s="33" t="n">
+      <c r="S12" s="72" t="n">
         <v>2036.8</v>
       </c>
-      <c r="T12" s="78" t="n">
+      <c r="T12" s="114" t="n">
         <v>2278.68</v>
       </c>
-      <c r="U12" s="17" t="n">
+      <c r="U12" s="95" t="n">
         <v>2469.47</v>
       </c>
-      <c r="V12" s="75" t="n">
+      <c r="V12" s="115" t="n">
         <v>2930.76</v>
       </c>
-      <c r="W12" s="29" t="n">
+      <c r="W12" s="103" t="n">
         <v>3039.45</v>
       </c>
-      <c r="X12" s="2" t="n">
+      <c r="X12" s="29" t="n">
         <v>2252.4</v>
       </c>
-      <c r="Y12" s="49" t="n">
+      <c r="Y12" s="23" t="n">
         <v>2045.93</v>
       </c>
-      <c r="Z12" s="110" t="n">
+      <c r="Z12" s="18" t="n">
         <v>2332.84</v>
       </c>
-      <c r="AA12" s="116" t="n">
+      <c r="AA12" s="9" t="n">
         <v>2304.94</v>
       </c>
-      <c r="AB12" s="117" t="n">
+      <c r="AB12" s="113" t="n">
         <v>2607.25</v>
       </c>
-      <c r="AC12" s="113" t="n">
+      <c r="AC12" s="77" t="n">
         <v>2835.24</v>
       </c>
-      <c r="AD12" s="114" t="n">
+      <c r="AD12" s="58" t="n">
         <v>2761.37</v>
       </c>
-      <c r="AE12" s="78" t="n">
+      <c r="AE12" s="114" t="n">
         <v>2279.3</v>
       </c>
-      <c r="AF12" s="28" t="inlineStr"/>
+      <c r="AF12" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2344,98 +2342,98 @@
           <t>May</t>
         </is>
       </c>
-      <c r="B13" s="104" t="n">
+      <c r="B13" s="101" t="n">
         <v>1873.48</v>
       </c>
-      <c r="C13" s="45" t="n">
+      <c r="C13" s="47" t="n">
         <v>1722.61</v>
       </c>
-      <c r="D13" s="39" t="n">
+      <c r="D13" s="21" t="n">
         <v>2096.95</v>
       </c>
-      <c r="E13" s="110" t="n">
+      <c r="E13" s="71" t="n">
         <v>2445.82</v>
       </c>
-      <c r="F13" s="77" t="n">
+      <c r="F13" s="4" t="n">
         <v>2908.14</v>
       </c>
-      <c r="G13" s="30" t="n">
+      <c r="G13" s="10" t="n">
         <v>3068.36</v>
       </c>
-      <c r="H13" s="49" t="n">
+      <c r="H13" s="19" t="n">
         <v>2222.98</v>
       </c>
-      <c r="I13" s="44" t="n">
+      <c r="I13" s="45" t="n">
         <v>1860.31</v>
       </c>
-      <c r="J13" s="21" t="n">
+      <c r="J13" s="27" t="n">
         <v>1462.23</v>
       </c>
-      <c r="K13" s="118" t="n">
+      <c r="K13" s="116" t="n">
         <v>1553.22</v>
       </c>
-      <c r="L13" s="53" t="n">
+      <c r="L13" s="56" t="n">
         <v>1783.02</v>
       </c>
       <c r="M13" s="3" t="n">
         <v>2821.87</v>
       </c>
-      <c r="N13" s="96" t="n">
+      <c r="N13" s="14" t="n">
         <v>2728.8</v>
       </c>
-      <c r="O13" s="95" t="n">
+      <c r="O13" s="109" t="n">
         <v>1711.45</v>
       </c>
-      <c r="P13" s="93" t="n">
+      <c r="P13" s="117" t="n">
         <v>1687.09</v>
       </c>
-      <c r="Q13" s="78" t="n">
+      <c r="Q13" s="70" t="n">
         <v>2412.61</v>
       </c>
-      <c r="R13" s="57" t="n">
+      <c r="R13" s="60" t="n">
         <v>2186.6</v>
       </c>
-      <c r="S13" s="59" t="n">
+      <c r="S13" s="62" t="n">
         <v>2233.65</v>
       </c>
-      <c r="T13" s="77" t="n">
+      <c r="T13" s="4" t="n">
         <v>2905.55</v>
       </c>
-      <c r="U13" s="119" t="n">
+      <c r="U13" s="88" t="n">
         <v>2600.11</v>
       </c>
-      <c r="V13" s="7" t="n">
+      <c r="V13" s="30" t="n">
         <v>2005.35</v>
       </c>
-      <c r="W13" s="120" t="n">
+      <c r="W13" s="118" t="n">
         <v>1629.19</v>
       </c>
-      <c r="X13" s="109" t="n">
+      <c r="X13" s="104" t="n">
         <v>1581.36</v>
       </c>
-      <c r="Y13" s="45" t="n">
+      <c r="Y13" s="47" t="n">
         <v>1715.97</v>
       </c>
-      <c r="Z13" s="44" t="n">
+      <c r="Z13" s="45" t="n">
         <v>1851.97</v>
       </c>
-      <c r="AA13" s="119" t="n">
+      <c r="AA13" s="88" t="n">
         <v>2593.34</v>
       </c>
-      <c r="AB13" s="121" t="n">
+      <c r="AB13" s="67" t="n">
         <v>2772.6</v>
       </c>
-      <c r="AC13" s="115" t="n">
+      <c r="AC13" s="111" t="n">
         <v>2336.36</v>
       </c>
-      <c r="AD13" s="80" t="n">
-        <v>1820.01</v>
-      </c>
-      <c r="AE13" s="93" t="n">
-        <v>1676.26</v>
-      </c>
-      <c r="AF13" s="18" t="n">
-        <v>2144.43</v>
+      <c r="AD13" s="45" t="n">
+        <v>1855.71</v>
+      </c>
+      <c r="AE13" s="109" t="n">
+        <v>1711.96</v>
+      </c>
+      <c r="AF13" s="60" t="n">
+        <v>2180.13</v>
       </c>
     </row>
   </sheetData>

--- a/Output/past_rev.xlsx
+++ b/Output/past_rev.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,599 +28,13 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <color rgb="00000000"/>
-    </font>
-    <font>
-      <color rgb="00F1F1F1"/>
-    </font>
   </fonts>
-  <fills count="118">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0097CA97"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0079BC79"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B3D8B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009BCC9B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AFD6AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C7E1C7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009ACB9A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B7DAB7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BBDCBB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DEEDDE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0082C082"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0087C287"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0075B975"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B9DBB9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008BC48B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D2E7D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C8E2C8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008FC68F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ACD4AC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9EAD9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D8EAD8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0081BF81"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0096C996"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B1D7B1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0085C185"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DAEBDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0DEC0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007DBD7D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0093C893"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ABD4AB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDDCBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A5D1A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C3E0C3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A2CFA2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCE4CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0098CA98"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0E6D0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCDCBC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDDDBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7D2A7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A3D0A3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008CC58C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B4D8B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C9E3C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CEE5CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0099CB99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ADD5AD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A6D2A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B8DAB8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E7F1E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008AC48A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009CCD9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BEDDBE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0091C791"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CBE4CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2D7B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0080BF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDECDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0076BA76"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D4E8D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009DCD9D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A8D2A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007ABC7A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AED5AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A9D3A9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EBF3EB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0077BA77"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5F0E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007FBE7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008EC58E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0078BB78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C1DFC1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E4F0E4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0090C790"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B5D9B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E3EFE3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B0D6B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0083C083"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CFE5CF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A4D0A4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AAD3AA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C2DFC2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A6D1A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007EBE7E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B6D9B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBEBDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BFDEBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009ECE9E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0088C388"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0092C892"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6E9D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009FCE9F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C4E0C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D1E6D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0089C389"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0094C994"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0095C995"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A1CFA1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6F1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BADBBA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0084C184"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EAF2EA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007CBD7C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DFEDDF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2D7B1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D3E7D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2EFE2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C5E0C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9F2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A0CEA0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008DC58D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007BBC7B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CAE3CA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0EEDF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DCECDC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -641,128 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="115" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="112" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1242,97 +539,97 @@
           <t>Jun</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="n">
         <v>2187.19</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" t="n">
         <v>2592.83</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" t="n">
         <v>2777.49</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" t="n">
         <v>1841.34</v>
       </c>
-      <c r="F2" s="6" t="n">
-        <v>1768.38</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>1340.24</v>
-      </c>
-      <c r="H2" s="8" t="n">
-        <v>1358.57</v>
-      </c>
-      <c r="I2" s="9" t="n">
-        <v>2287.43</v>
-      </c>
-      <c r="J2" s="10" t="n">
-        <v>3066.29</v>
-      </c>
-      <c r="K2" s="11" t="n">
-        <v>3036.99</v>
-      </c>
-      <c r="L2" s="12" t="n">
-        <v>2354.59</v>
-      </c>
-      <c r="M2" s="13" t="n">
-        <v>2097.1</v>
-      </c>
-      <c r="N2" s="14" t="n">
-        <v>2393.68</v>
-      </c>
-      <c r="O2" s="15" t="n">
-        <v>1892.91</v>
-      </c>
-      <c r="P2" s="16" t="n">
+      <c r="F2" t="n">
+        <v>1811.38</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1383.24</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1401.57</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2334.43</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3088.29</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3053.89</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2423.29</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1932</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2170.75</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2601.64</v>
+      </c>
+      <c r="P2" t="n">
         <v>1609.52</v>
       </c>
-      <c r="Q2" s="17" t="n">
+      <c r="Q2" t="n">
         <v>2057.15</v>
       </c>
-      <c r="R2" s="18" t="n">
+      <c r="R2" t="n">
         <v>2307.27</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" t="n">
         <v>2767.96</v>
       </c>
-      <c r="T2" s="15" t="n">
+      <c r="T2" t="n">
         <v>1908.31</v>
       </c>
-      <c r="U2" s="19" t="n">
+      <c r="U2" t="n">
         <v>1447.26</v>
       </c>
-      <c r="V2" s="20" t="n">
+      <c r="V2" t="n">
         <v>1281.85</v>
       </c>
-      <c r="W2" s="21" t="n">
+      <c r="W2" t="n">
         <v>1220.66</v>
       </c>
-      <c r="X2" s="22" t="n">
+      <c r="X2" t="n">
         <v>1784.98</v>
       </c>
-      <c r="Y2" s="23" t="n">
+      <c r="Y2" t="n">
         <v>2033.26</v>
       </c>
-      <c r="Z2" s="3" t="n">
+      <c r="Z2" t="n">
         <v>2593.38</v>
       </c>
-      <c r="AA2" s="17" t="n">
+      <c r="AA2" t="n">
         <v>2048.9</v>
       </c>
-      <c r="AB2" s="24" t="n">
+      <c r="AB2" t="n">
         <v>1737.8</v>
       </c>
-      <c r="AC2" s="20" t="n">
+      <c r="AC2" t="n">
         <v>1272.14</v>
       </c>
-      <c r="AD2" s="25" t="n">
+      <c r="AD2" t="n">
         <v>1700.43</v>
       </c>
-      <c r="AE2" s="26" t="n">
+      <c r="AE2" t="n">
         <v>2336.67</v>
       </c>
-      <c r="AF2" s="27" t="n">
+      <c r="AF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1342,97 +639,97 @@
           <t>Jul</t>
         </is>
       </c>
-      <c r="B3" s="28" t="n">
+      <c r="B3" t="n">
         <v>2646.65</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" t="n">
         <v>2699.5</v>
       </c>
-      <c r="D3" s="29" t="n">
+      <c r="D3" t="n">
         <v>2286.66</v>
       </c>
-      <c r="E3" s="30" t="n">
+      <c r="E3" t="n">
         <v>1726.92</v>
       </c>
-      <c r="F3" s="31" t="n">
+      <c r="F3" t="n">
         <v>1391.08</v>
       </c>
-      <c r="G3" s="32" t="n">
+      <c r="G3" t="n">
         <v>1276.18</v>
       </c>
-      <c r="H3" s="33" t="n">
+      <c r="H3" t="n">
         <v>1917.72</v>
       </c>
-      <c r="I3" s="34" t="n">
+      <c r="I3" t="n">
         <v>2688.52</v>
       </c>
-      <c r="J3" s="15" t="n">
+      <c r="J3" t="n">
         <v>2147.39</v>
       </c>
-      <c r="K3" s="35" t="n">
+      <c r="K3" t="n">
         <v>1301.5</v>
       </c>
-      <c r="L3" s="27" t="n">
+      <c r="L3" t="n">
         <v>1229.67</v>
       </c>
-      <c r="M3" s="36" t="n">
+      <c r="M3" t="n">
         <v>1445.78</v>
       </c>
-      <c r="N3" s="37" t="n">
+      <c r="N3" t="n">
         <v>1680.3</v>
       </c>
-      <c r="O3" s="38" t="n">
+      <c r="O3" t="n">
         <v>1668.45</v>
       </c>
-      <c r="P3" s="39" t="n">
+      <c r="P3" t="n">
         <v>2595.91</v>
       </c>
-      <c r="Q3" s="40" t="n">
+      <c r="Q3" t="n">
         <v>2539.37</v>
       </c>
-      <c r="R3" s="21" t="n">
+      <c r="R3" t="n">
         <v>1811.27</v>
       </c>
-      <c r="S3" s="41" t="n">
+      <c r="S3" t="n">
         <v>1712.93</v>
       </c>
-      <c r="T3" s="41" t="n">
+      <c r="T3" t="n">
         <v>1716.23</v>
       </c>
-      <c r="U3" s="24" t="n">
+      <c r="U3" t="n">
         <v>2061.14</v>
       </c>
-      <c r="V3" s="17" t="n">
+      <c r="V3" t="n">
         <v>2207.14</v>
       </c>
-      <c r="W3" s="42" t="n">
+      <c r="W3" t="n">
         <v>2446.6</v>
       </c>
-      <c r="X3" s="43" t="n">
+      <c r="X3" t="n">
         <v>2630.78</v>
       </c>
-      <c r="Y3" s="44" t="n">
+      <c r="Y3" t="n">
         <v>1737.72</v>
       </c>
-      <c r="Z3" s="45" t="n">
+      <c r="Z3" t="n">
         <v>1588.34</v>
       </c>
-      <c r="AA3" s="46" t="n">
+      <c r="AA3" t="n">
         <v>1579.49</v>
       </c>
-      <c r="AB3" s="47" t="n">
+      <c r="AB3" t="n">
         <v>1465.46</v>
       </c>
-      <c r="AC3" s="48" t="n">
+      <c r="AC3" t="n">
         <v>1650.94</v>
       </c>
-      <c r="AD3" s="34" t="n">
+      <c r="AD3" t="n">
         <v>2693.21</v>
       </c>
-      <c r="AE3" s="49" t="n">
+      <c r="AE3" t="n">
         <v>2621.04</v>
       </c>
-      <c r="AF3" s="50" t="n">
+      <c r="AF3" t="n">
         <v>1800.17</v>
       </c>
     </row>
@@ -1442,97 +739,97 @@
           <t>Aug</t>
         </is>
       </c>
-      <c r="B4" s="19" t="n">
+      <c r="B4" t="n">
         <v>1852.92</v>
       </c>
-      <c r="C4" s="51" t="n">
+      <c r="C4" t="n">
         <v>1759.69</v>
       </c>
-      <c r="D4" s="52" t="n">
+      <c r="D4" t="n">
         <v>1903.54</v>
       </c>
-      <c r="E4" s="53" t="n">
+      <c r="E4" t="n">
         <v>1923.05</v>
       </c>
-      <c r="F4" s="54" t="n">
+      <c r="F4" t="n">
         <v>2491.5</v>
       </c>
-      <c r="G4" s="42" t="n">
+      <c r="G4" t="n">
         <v>2522.73</v>
       </c>
-      <c r="H4" s="55" t="n">
+      <c r="H4" t="n">
         <v>1472.18</v>
       </c>
-      <c r="I4" s="56" t="n">
+      <c r="I4" t="n">
         <v>1323.9</v>
       </c>
-      <c r="J4" s="48" t="n">
+      <c r="J4" t="n">
         <v>1497.2</v>
       </c>
-      <c r="K4" s="33" t="n">
+      <c r="K4" t="n">
         <v>1834.26</v>
       </c>
-      <c r="L4" s="57" t="n">
+      <c r="L4" t="n">
         <v>1825.26</v>
       </c>
-      <c r="M4" s="58" t="n">
+      <c r="M4" t="n">
         <v>2652.47</v>
       </c>
-      <c r="N4" s="59" t="n">
+      <c r="N4" t="n">
         <v>2808.13</v>
       </c>
-      <c r="O4" s="30" t="n">
+      <c r="O4" t="n">
         <v>1598.9</v>
       </c>
-      <c r="P4" s="60" t="n">
+      <c r="P4" t="n">
         <v>1812.47</v>
       </c>
-      <c r="Q4" s="61" t="n">
+      <c r="Q4" t="n">
         <v>1662.45</v>
       </c>
-      <c r="R4" s="51" t="n">
+      <c r="R4" t="n">
         <v>1761.84</v>
       </c>
-      <c r="S4" s="62" t="n">
+      <c r="S4" t="n">
         <v>1870.79</v>
       </c>
-      <c r="T4" s="58" t="n">
+      <c r="T4" t="n">
         <v>2645.32</v>
       </c>
-      <c r="U4" s="34" t="n">
+      <c r="U4" t="n">
         <v>2861.92</v>
       </c>
-      <c r="V4" s="56" t="n">
+      <c r="V4" t="n">
         <v>1337.89</v>
       </c>
-      <c r="W4" s="38" t="n">
+      <c r="W4" t="n">
         <v>1532.95</v>
       </c>
-      <c r="X4" s="53" t="n">
+      <c r="X4" t="n">
         <v>1933.79</v>
       </c>
-      <c r="Y4" s="63" t="n">
+      <c r="Y4" t="n">
         <v>1579.15</v>
       </c>
-      <c r="Z4" s="61" t="n">
+      <c r="Z4" t="n">
         <v>1657.42</v>
       </c>
-      <c r="AA4" s="15" t="n">
+      <c r="AA4" t="n">
         <v>2145.63</v>
       </c>
-      <c r="AB4" s="64" t="n">
+      <c r="AB4" t="n">
         <v>2273.62</v>
       </c>
-      <c r="AC4" s="48" t="n">
+      <c r="AC4" t="n">
         <v>1496.68</v>
       </c>
-      <c r="AD4" s="27" t="n">
+      <c r="AD4" t="n">
         <v>953.0600000000001</v>
       </c>
-      <c r="AE4" s="65" t="n">
+      <c r="AE4" t="n">
         <v>1446.57</v>
       </c>
-      <c r="AF4" s="66" t="n">
+      <c r="AF4" t="n">
         <v>1476.74</v>
       </c>
     </row>
@@ -1542,97 +839,97 @@
           <t>Sep</t>
         </is>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" t="n">
         <v>1964.37</v>
       </c>
-      <c r="C5" s="67" t="n">
+      <c r="C5" t="n">
         <v>2346.49</v>
       </c>
-      <c r="D5" s="68" t="n">
+      <c r="D5" t="n">
         <v>2490.84</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" t="n">
         <v>1795.5</v>
       </c>
-      <c r="F5" s="33" t="n">
+      <c r="F5" t="n">
         <v>1346.66</v>
       </c>
-      <c r="G5" s="33" t="n">
+      <c r="G5" t="n">
         <v>1342.32</v>
       </c>
-      <c r="H5" s="62" t="n">
+      <c r="H5" t="n">
         <v>1383.99</v>
       </c>
-      <c r="I5" s="23" t="n">
+      <c r="I5" t="n">
         <v>1891.87</v>
       </c>
-      <c r="J5" s="43" t="n">
+      <c r="J5" t="n">
         <v>2761.61</v>
       </c>
-      <c r="K5" s="69" t="n">
+      <c r="K5" t="n">
         <v>2636.78</v>
       </c>
-      <c r="L5" s="13" t="n">
+      <c r="L5" t="n">
         <v>1938.45</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" t="n">
         <v>1647.99</v>
       </c>
-      <c r="N5" s="25" t="n">
+      <c r="N5" t="n">
         <v>1594.06</v>
       </c>
-      <c r="O5" s="70" t="n">
+      <c r="O5" t="n">
         <v>1697.6</v>
       </c>
-      <c r="P5" s="22" t="n">
+      <c r="P5" t="n">
         <v>1674.78</v>
       </c>
-      <c r="Q5" s="10" t="n">
+      <c r="Q5" t="n">
         <v>2882.21</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" t="n">
         <v>2838.72</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" t="n">
         <v>2217.78</v>
       </c>
-      <c r="T5" s="71" t="n">
+      <c r="T5" t="n">
         <v>1759.17</v>
       </c>
-      <c r="U5" s="23" t="n">
+      <c r="U5" t="n">
         <v>1900.21</v>
       </c>
-      <c r="V5" s="72" t="n">
+      <c r="V5" t="n">
         <v>1884.88</v>
       </c>
-      <c r="W5" s="14" t="n">
+      <c r="W5" t="n">
         <v>2262.17</v>
       </c>
-      <c r="X5" s="28" t="n">
+      <c r="X5" t="n">
         <v>2778.41</v>
       </c>
-      <c r="Y5" s="34" t="n">
+      <c r="Y5" t="n">
         <v>2865.29</v>
       </c>
-      <c r="Z5" s="73" t="n">
+      <c r="Z5" t="n">
         <v>2389.71</v>
       </c>
-      <c r="AA5" s="18" t="n">
+      <c r="AA5" t="n">
         <v>2169.62</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" t="n">
         <v>2225.24</v>
       </c>
-      <c r="AC5" s="74" t="n">
+      <c r="AC5" t="n">
         <v>2118.74</v>
       </c>
-      <c r="AD5" s="73" t="n">
+      <c r="AD5" t="n">
         <v>2403.24</v>
       </c>
-      <c r="AE5" s="75" t="n">
+      <c r="AE5" t="n">
         <v>2682.71</v>
       </c>
-      <c r="AF5" s="27" t="n">
+      <c r="AF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,97 +939,97 @@
           <t>Oct</t>
         </is>
       </c>
-      <c r="B6" s="53" t="n">
+      <c r="B6" t="n">
         <v>2728.29</v>
       </c>
-      <c r="C6" s="76" t="n">
+      <c r="C6" t="n">
         <v>1527.88</v>
       </c>
-      <c r="D6" s="36" t="n">
+      <c r="D6" t="n">
         <v>1244.03</v>
       </c>
-      <c r="E6" s="65" t="n">
+      <c r="E6" t="n">
         <v>1702.41</v>
       </c>
-      <c r="F6" s="48" t="n">
+      <c r="F6" t="n">
         <v>1799.99</v>
       </c>
-      <c r="G6" s="17" t="n">
+      <c r="G6" t="n">
         <v>3338.04</v>
       </c>
-      <c r="H6" s="77" t="n">
+      <c r="H6" t="n">
         <v>4299.6</v>
       </c>
-      <c r="I6" s="77" t="n">
+      <c r="I6" t="n">
         <v>4299.6</v>
       </c>
-      <c r="J6" s="52" t="n">
+      <c r="J6" t="n">
         <v>2660.13</v>
       </c>
-      <c r="K6" s="47" t="n">
+      <c r="K6" t="n">
         <v>1311.81</v>
       </c>
-      <c r="L6" s="78" t="n">
+      <c r="L6" t="n">
         <v>930.9400000000001</v>
       </c>
-      <c r="M6" s="46" t="n">
+      <c r="M6" t="n">
         <v>1622.68</v>
       </c>
-      <c r="N6" s="17" t="n">
+      <c r="N6" t="n">
         <v>3331.39</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" t="n">
         <v>4262.4</v>
       </c>
-      <c r="P6" s="10" t="n">
+      <c r="P6" t="n">
         <v>4659.92</v>
       </c>
-      <c r="Q6" s="70" t="n">
+      <c r="Q6" t="n">
         <v>3015</v>
       </c>
-      <c r="R6" s="79" t="n">
+      <c r="R6" t="n">
         <v>1366</v>
       </c>
-      <c r="S6" s="80" t="n">
+      <c r="S6" t="n">
         <v>1552</v>
       </c>
-      <c r="T6" s="48" t="n">
+      <c r="T6" t="n">
         <v>1817.31</v>
       </c>
-      <c r="U6" s="81" t="n">
+      <c r="U6" t="n">
         <v>3169.31</v>
       </c>
-      <c r="V6" s="82" t="n">
+      <c r="V6" t="n">
         <v>4145.96</v>
       </c>
-      <c r="W6" s="75" t="n">
+      <c r="W6" t="n">
         <v>4388.96</v>
       </c>
-      <c r="X6" s="83" t="n">
+      <c r="X6" t="n">
         <v>2609.16</v>
       </c>
-      <c r="Y6" s="79" t="n">
+      <c r="Y6" t="n">
         <v>1378</v>
       </c>
-      <c r="Z6" s="27" t="n">
+      <c r="Z6" t="n">
         <v>674</v>
       </c>
-      <c r="AA6" s="79" t="n">
+      <c r="AA6" t="n">
         <v>1371</v>
       </c>
-      <c r="AB6" s="33" t="n">
+      <c r="AB6" t="n">
         <v>2519</v>
       </c>
-      <c r="AC6" s="84" t="n">
+      <c r="AC6" t="n">
         <v>3858</v>
       </c>
-      <c r="AD6" s="42" t="n">
+      <c r="AD6" t="n">
         <v>3957</v>
       </c>
-      <c r="AE6" s="85" t="n">
+      <c r="AE6" t="n">
         <v>2182</v>
       </c>
-      <c r="AF6" s="86" t="n">
+      <c r="AF6" t="n">
         <v>1074</v>
       </c>
     </row>
@@ -1742,97 +1039,97 @@
           <t>Nov</t>
         </is>
       </c>
-      <c r="B7" s="37" t="n">
+      <c r="B7" t="n">
         <v>1081</v>
       </c>
-      <c r="C7" s="38" t="n">
+      <c r="C7" t="n">
         <v>1060</v>
       </c>
-      <c r="D7" s="87" t="n">
+      <c r="D7" t="n">
         <v>1265</v>
       </c>
-      <c r="E7" s="88" t="n">
+      <c r="E7" t="n">
         <v>2496.12</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" t="n">
         <v>2359.67</v>
       </c>
-      <c r="G7" s="85" t="n">
+      <c r="G7" t="n">
         <v>1332.86</v>
       </c>
-      <c r="H7" s="37" t="n">
+      <c r="H7" t="n">
         <v>1092.77</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" t="n">
         <v>1540.06</v>
       </c>
-      <c r="J7" s="16" t="n">
+      <c r="J7" t="n">
         <v>1842.56</v>
       </c>
-      <c r="K7" s="64" t="n">
+      <c r="K7" t="n">
         <v>2427.23</v>
       </c>
-      <c r="L7" s="43" t="n">
+      <c r="L7" t="n">
         <v>3370.15</v>
       </c>
-      <c r="M7" s="10" t="n">
+      <c r="M7" t="n">
         <v>3511.04</v>
       </c>
-      <c r="N7" s="88" t="n">
+      <c r="N7" t="n">
         <v>2489.06</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" t="n">
         <v>2026.77</v>
       </c>
-      <c r="P7" s="17" t="n">
+      <c r="P7" t="n">
         <v>2339.44</v>
       </c>
-      <c r="Q7" s="15" t="n">
+      <c r="Q7" t="n">
         <v>2192.86</v>
       </c>
-      <c r="R7" s="89" t="n">
+      <c r="R7" t="n">
         <v>2259.83</v>
       </c>
-      <c r="S7" s="26" t="n">
+      <c r="S7" t="n">
         <v>2687.43</v>
       </c>
-      <c r="T7" s="74" t="n">
+      <c r="T7" t="n">
         <v>2596.83</v>
       </c>
-      <c r="U7" s="51" t="n">
+      <c r="U7" t="n">
         <v>1501.58</v>
       </c>
-      <c r="V7" s="90" t="n">
+      <c r="V7" t="n">
         <v>1400.94</v>
       </c>
-      <c r="W7" s="91" t="n">
+      <c r="W7" t="n">
         <v>1250.94</v>
       </c>
-      <c r="X7" s="61" t="n">
+      <c r="X7" t="n">
         <v>1297.78</v>
       </c>
-      <c r="Y7" s="92" t="n">
+      <c r="Y7" t="n">
         <v>1756.93</v>
       </c>
-      <c r="Z7" s="23" t="n">
+      <c r="Z7" t="n">
         <v>2306.3</v>
       </c>
-      <c r="AA7" s="70" t="n">
+      <c r="AA7" t="n">
         <v>2065.47</v>
       </c>
-      <c r="AB7" s="38" t="n">
+      <c r="AB7" t="n">
         <v>1056.47</v>
       </c>
-      <c r="AC7" s="90" t="n">
+      <c r="AC7" t="n">
         <v>1423.04</v>
       </c>
-      <c r="AD7" s="85" t="n">
+      <c r="AD7" t="n">
         <v>1332.66</v>
       </c>
-      <c r="AE7" s="93" t="n">
+      <c r="AE7" t="n">
         <v>1453.6</v>
       </c>
-      <c r="AF7" s="27" t="n">
+      <c r="AF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1842,97 +1139,97 @@
           <t>Dec</t>
         </is>
       </c>
-      <c r="B8" s="64" t="n">
+      <c r="B8" t="n">
         <v>2013.82</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" t="n">
         <v>2167.28</v>
       </c>
-      <c r="D8" s="75" t="n">
+      <c r="D8" t="n">
         <v>2413.05</v>
       </c>
-      <c r="E8" s="94" t="n">
+      <c r="E8" t="n">
         <v>1245.1</v>
       </c>
-      <c r="F8" s="45" t="n">
+      <c r="F8" t="n">
         <v>1267.94</v>
       </c>
-      <c r="G8" s="53" t="n">
+      <c r="G8" t="n">
         <v>1708.6</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" t="n">
         <v>1816.3</v>
       </c>
-      <c r="I8" s="23" t="n">
+      <c r="I8" t="n">
         <v>1957.34</v>
       </c>
-      <c r="J8" s="14" t="n">
+      <c r="J8" t="n">
         <v>2172.97</v>
       </c>
-      <c r="K8" s="95" t="n">
+      <c r="K8" t="n">
         <v>2178.52</v>
       </c>
-      <c r="L8" s="96" t="n">
+      <c r="L8" t="n">
         <v>1728.45</v>
       </c>
-      <c r="M8" s="90" t="n">
+      <c r="M8" t="n">
         <v>1528.1</v>
       </c>
-      <c r="N8" s="44" t="n">
+      <c r="N8" t="n">
         <v>1431.96</v>
       </c>
-      <c r="O8" s="94" t="n">
+      <c r="O8" t="n">
         <v>1235.86</v>
       </c>
-      <c r="P8" s="55" t="n">
+      <c r="P8" t="n">
         <v>1299.45</v>
       </c>
-      <c r="Q8" s="21" t="n">
+      <c r="Q8" t="n">
         <v>1515.59</v>
       </c>
-      <c r="R8" s="17" t="n">
+      <c r="R8" t="n">
         <v>1966.61</v>
       </c>
-      <c r="S8" s="51" t="n">
+      <c r="S8" t="n">
         <v>1566.94</v>
       </c>
-      <c r="T8" s="47" t="n">
+      <c r="T8" t="n">
         <v>1122.85</v>
       </c>
-      <c r="U8" s="97" t="n">
+      <c r="U8" t="n">
         <v>924.2</v>
       </c>
-      <c r="V8" s="98" t="n">
+      <c r="V8" t="n">
         <v>1060.46</v>
       </c>
-      <c r="W8" s="50" t="n">
+      <c r="W8" t="n">
         <v>1498.91</v>
       </c>
-      <c r="X8" s="99" t="n">
+      <c r="X8" t="n">
         <v>1199.33</v>
       </c>
-      <c r="Y8" s="7" t="n">
+      <c r="Y8" t="n">
         <v>1585.29</v>
       </c>
-      <c r="Z8" s="100" t="n">
+      <c r="Z8" t="n">
         <v>889.1899999999999</v>
       </c>
-      <c r="AA8" s="27" t="n">
+      <c r="AA8" t="n">
         <v>853.99</v>
       </c>
-      <c r="AB8" s="97" t="n">
+      <c r="AB8" t="n">
         <v>930.4</v>
       </c>
-      <c r="AC8" s="65" t="n">
+      <c r="AC8" t="n">
         <v>1286.89</v>
       </c>
-      <c r="AD8" s="93" t="n">
+      <c r="AD8" t="n">
         <v>1536.4</v>
       </c>
-      <c r="AE8" s="43" t="n">
+      <c r="AE8" t="n">
         <v>2451.1</v>
       </c>
-      <c r="AF8" s="34" t="n">
+      <c r="AF8" t="n">
         <v>2528.23</v>
       </c>
     </row>
@@ -1942,97 +1239,97 @@
           <t>Jan</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" t="n">
         <v>1599.57</v>
       </c>
-      <c r="C9" s="93" t="n">
+      <c r="C9" t="n">
         <v>1549.11</v>
       </c>
-      <c r="D9" s="101" t="n">
+      <c r="D9" t="n">
         <v>1217.86</v>
       </c>
-      <c r="E9" s="90" t="n">
+      <c r="E9" t="n">
         <v>1523.08</v>
       </c>
-      <c r="F9" s="102" t="n">
+      <c r="F9" t="n">
         <v>2132.95</v>
       </c>
-      <c r="G9" s="26" t="n">
+      <c r="G9" t="n">
         <v>2255.47</v>
       </c>
-      <c r="H9" s="14" t="n">
+      <c r="H9" t="n">
         <v>2296.76</v>
       </c>
-      <c r="I9" s="37" t="n">
+      <c r="I9" t="n">
         <v>1332.12</v>
       </c>
-      <c r="J9" s="101" t="n">
+      <c r="J9" t="n">
         <v>1217.88</v>
       </c>
-      <c r="K9" s="101" t="n">
+      <c r="K9" t="n">
         <v>1227.79</v>
       </c>
-      <c r="L9" s="30" t="n">
+      <c r="L9" t="n">
         <v>1400.66</v>
       </c>
-      <c r="M9" s="96" t="n">
+      <c r="M9" t="n">
         <v>1767.97</v>
       </c>
-      <c r="N9" s="40" t="n">
+      <c r="N9" t="n">
         <v>2528.91</v>
       </c>
-      <c r="O9" s="103" t="n">
+      <c r="O9" t="n">
         <v>2702.44</v>
       </c>
-      <c r="P9" s="70" t="n">
+      <c r="P9" t="n">
         <v>1901.71</v>
       </c>
-      <c r="Q9" s="50" t="n">
+      <c r="Q9" t="n">
         <v>1492.6</v>
       </c>
-      <c r="R9" s="47" t="n">
+      <c r="R9" t="n">
         <v>1036.32</v>
       </c>
-      <c r="S9" s="31" t="n">
+      <c r="S9" t="n">
         <v>942.85</v>
       </c>
-      <c r="T9" s="91" t="n">
+      <c r="T9" t="n">
         <v>1431.18</v>
       </c>
-      <c r="U9" s="53" t="n">
+      <c r="U9" t="n">
         <v>1755.35</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" t="n">
         <v>2159.82</v>
       </c>
-      <c r="W9" s="36" t="n">
+      <c r="W9" t="n">
         <v>1007.45</v>
       </c>
-      <c r="X9" s="104" t="n">
+      <c r="X9" t="n">
         <v>859.77</v>
       </c>
-      <c r="Y9" s="27" t="n">
+      <c r="Y9" t="n">
         <v>709.8099999999999</v>
       </c>
-      <c r="Z9" s="31" t="n">
+      <c r="Z9" t="n">
         <v>940.33</v>
       </c>
-      <c r="AA9" s="71" t="n">
+      <c r="AA9" t="n">
         <v>1956.17</v>
       </c>
-      <c r="AB9" s="10" t="n">
+      <c r="AB9" t="n">
         <v>2741.1</v>
       </c>
-      <c r="AC9" s="4" t="n">
+      <c r="AC9" t="n">
         <v>2549.49</v>
       </c>
-      <c r="AD9" s="105" t="n">
+      <c r="AD9" t="n">
         <v>1799.21</v>
       </c>
-      <c r="AE9" s="36" t="n">
+      <c r="AE9" t="n">
         <v>1003.05</v>
       </c>
-      <c r="AF9" s="106" t="n">
+      <c r="AF9" t="n">
         <v>975.8100000000001</v>
       </c>
     </row>
@@ -2042,97 +1339,97 @@
           <t>Feb</t>
         </is>
       </c>
-      <c r="B10" s="93" t="n">
+      <c r="B10" t="n">
         <v>1165.21</v>
       </c>
-      <c r="C10" s="105" t="n">
+      <c r="C10" t="n">
         <v>1514.11</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" t="n">
         <v>2100.82</v>
       </c>
-      <c r="E10" s="75" t="n">
+      <c r="E10" t="n">
         <v>2641.99</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" t="n">
         <v>1485.32</v>
       </c>
-      <c r="G10" s="22" t="n">
+      <c r="G10" t="n">
         <v>1646.96</v>
       </c>
-      <c r="H10" s="53" t="n">
+      <c r="H10" t="n">
         <v>1450.48</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" t="n">
         <v>1594.93</v>
       </c>
-      <c r="J10" s="17" t="n">
+      <c r="J10" t="n">
         <v>1886</v>
       </c>
-      <c r="K10" s="68" t="n">
+      <c r="K10" t="n">
         <v>2439.54</v>
       </c>
-      <c r="L10" s="10" t="n">
+      <c r="L10" t="n">
         <v>2820.3</v>
       </c>
-      <c r="M10" s="107" t="n">
+      <c r="M10" t="n">
         <v>1700.08</v>
       </c>
-      <c r="N10" s="16" t="n">
+      <c r="N10" t="n">
         <v>1498.16</v>
       </c>
-      <c r="O10" s="22" t="n">
+      <c r="O10" t="n">
         <v>1641.12</v>
       </c>
-      <c r="P10" s="25" t="n">
+      <c r="P10" t="n">
         <v>1550.53</v>
       </c>
-      <c r="Q10" s="72" t="n">
+      <c r="Q10" t="n">
         <v>1840.42</v>
       </c>
-      <c r="R10" s="69" t="n">
+      <c r="R10" t="n">
         <v>2588.75</v>
       </c>
-      <c r="S10" s="58" t="n">
+      <c r="S10" t="n">
         <v>2505.78</v>
       </c>
-      <c r="T10" s="29" t="n">
+      <c r="T10" t="n">
         <v>2047.98</v>
       </c>
-      <c r="U10" s="92" t="n">
+      <c r="U10" t="n">
         <v>1423.86</v>
       </c>
-      <c r="V10" s="52" t="n">
+      <c r="V10" t="n">
         <v>1396.24</v>
       </c>
-      <c r="W10" s="92" t="n">
+      <c r="W10" t="n">
         <v>1412.21</v>
       </c>
-      <c r="X10" s="22" t="n">
+      <c r="X10" t="n">
         <v>1650.95</v>
       </c>
-      <c r="Y10" s="69" t="n">
+      <c r="Y10" t="n">
         <v>2596.89</v>
       </c>
-      <c r="Z10" s="69" t="n">
+      <c r="Z10" t="n">
         <v>2581.61</v>
       </c>
-      <c r="AA10" s="108" t="n">
+      <c r="AA10" t="n">
         <v>1795.81</v>
       </c>
-      <c r="AB10" s="57" t="n">
+      <c r="AB10" t="n">
         <v>1283.44</v>
       </c>
-      <c r="AC10" s="96" t="n">
+      <c r="AC10" t="n">
         <v>1458.54</v>
       </c>
-      <c r="AD10" s="27" t="n">
+      <c r="AD10" t="n">
         <v>0</v>
       </c>
-      <c r="AE10" s="27" t="n">
+      <c r="AE10" t="n">
         <v>0</v>
       </c>
-      <c r="AF10" s="27" t="n">
+      <c r="AF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2142,97 +1439,97 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B11" s="31" t="n">
+      <c r="B11" t="n">
         <v>1544.81</v>
       </c>
-      <c r="C11" s="109" t="n">
+      <c r="C11" t="n">
         <v>1743.87</v>
       </c>
-      <c r="D11" s="38" t="n">
+      <c r="D11" t="n">
         <v>2382.2</v>
       </c>
-      <c r="E11" s="50" t="n">
+      <c r="E11" t="n">
         <v>2767.42</v>
       </c>
-      <c r="F11" s="65" t="n">
+      <c r="F11" t="n">
         <v>2210.8</v>
       </c>
-      <c r="G11" s="76" t="n">
+      <c r="G11" t="n">
         <v>2016.15</v>
       </c>
-      <c r="H11" s="98" t="n">
+      <c r="H11" t="n">
         <v>1603.56</v>
       </c>
-      <c r="I11" s="94" t="n">
+      <c r="I11" t="n">
         <v>2077.22</v>
       </c>
-      <c r="J11" s="96" t="n">
+      <c r="J11" t="n">
         <v>3380</v>
       </c>
-      <c r="K11" s="103" t="n">
+      <c r="K11" t="n">
         <v>5409</v>
       </c>
-      <c r="L11" s="34" t="n">
+      <c r="L11" t="n">
         <v>5498</v>
       </c>
-      <c r="M11" s="23" t="n">
+      <c r="M11" t="n">
         <v>3980</v>
       </c>
-      <c r="N11" s="57" t="n">
+      <c r="N11" t="n">
         <v>3096</v>
       </c>
-      <c r="O11" s="21" t="n">
+      <c r="O11" t="n">
         <v>2811</v>
       </c>
-      <c r="P11" s="21" t="n">
+      <c r="P11" t="n">
         <v>2810.45</v>
       </c>
-      <c r="Q11" s="71" t="n">
+      <c r="Q11" t="n">
         <v>3764.7</v>
       </c>
-      <c r="R11" s="69" t="n">
+      <c r="R11" t="n">
         <v>5130.83</v>
       </c>
-      <c r="S11" s="73" t="n">
+      <c r="S11" t="n">
         <v>4760.35</v>
       </c>
-      <c r="T11" s="38" t="n">
+      <c r="T11" t="n">
         <v>2391.05</v>
       </c>
-      <c r="U11" s="27" t="n">
+      <c r="U11" t="n">
         <v>1057.05</v>
       </c>
-      <c r="V11" s="110" t="n">
+      <c r="V11" t="n">
         <v>1123.21</v>
       </c>
-      <c r="W11" s="76" t="n">
+      <c r="W11" t="n">
         <v>2013.88</v>
       </c>
-      <c r="X11" s="63" t="n">
+      <c r="X11" t="n">
         <v>2487.2</v>
       </c>
-      <c r="Y11" s="51" t="n">
+      <c r="Y11" t="n">
         <v>2964.8</v>
       </c>
-      <c r="Z11" s="51" t="n">
+      <c r="Z11" t="n">
         <v>2963.76</v>
       </c>
-      <c r="AA11" s="80" t="n">
+      <c r="AA11" t="n">
         <v>2039.38</v>
       </c>
-      <c r="AB11" s="94" t="n">
+      <c r="AB11" t="n">
         <v>2078.52</v>
       </c>
-      <c r="AC11" s="80" t="n">
+      <c r="AC11" t="n">
         <v>2044.33</v>
       </c>
-      <c r="AD11" s="63" t="n">
+      <c r="AD11" t="n">
         <v>2493.45</v>
       </c>
-      <c r="AE11" s="55" t="n">
+      <c r="AE11" t="n">
         <v>2252.55</v>
       </c>
-      <c r="AF11" s="50" t="n">
+      <c r="AF11" t="n">
         <v>2763.49</v>
       </c>
     </row>
@@ -2242,97 +1539,97 @@
           <t>Apr</t>
         </is>
       </c>
-      <c r="B12" s="40" t="n">
+      <c r="B12" t="n">
         <v>2785.23</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" t="n">
         <v>2119.07</v>
       </c>
-      <c r="D12" s="111" t="n">
+      <c r="D12" t="n">
         <v>1685.46</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" t="n">
         <v>1789.18</v>
       </c>
-      <c r="F12" s="22" t="n">
+      <c r="F12" t="n">
         <v>1809.45</v>
       </c>
-      <c r="G12" s="88" t="n">
+      <c r="G12" t="n">
         <v>2183.22</v>
       </c>
-      <c r="H12" s="77" t="n">
+      <c r="H12" t="n">
         <v>2830.51</v>
       </c>
-      <c r="I12" s="14" t="n">
+      <c r="I12" t="n">
         <v>2427.86</v>
       </c>
-      <c r="J12" s="112" t="n">
+      <c r="J12" t="n">
         <v>1724.51</v>
       </c>
-      <c r="K12" s="91" t="n">
+      <c r="K12" t="n">
         <v>1097.92</v>
       </c>
-      <c r="L12" s="92" t="n">
+      <c r="L12" t="n">
         <v>1572.46</v>
       </c>
-      <c r="M12" s="15" t="n">
+      <c r="M12" t="n">
         <v>1926.88</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" t="n">
         <v>2385.46</v>
       </c>
-      <c r="O12" s="34" t="n">
+      <c r="O12" t="n">
         <v>3079.85</v>
       </c>
-      <c r="P12" s="10" t="n">
+      <c r="P12" t="n">
         <v>3104.01</v>
       </c>
-      <c r="Q12" s="113" t="n">
+      <c r="Q12" t="n">
         <v>2602.41</v>
       </c>
-      <c r="R12" s="89" t="n">
+      <c r="R12" t="n">
         <v>2002.03</v>
       </c>
-      <c r="S12" s="72" t="n">
+      <c r="S12" t="n">
         <v>2036.8</v>
       </c>
-      <c r="T12" s="114" t="n">
+      <c r="T12" t="n">
         <v>2278.68</v>
       </c>
-      <c r="U12" s="95" t="n">
+      <c r="U12" t="n">
         <v>2469.47</v>
       </c>
-      <c r="V12" s="115" t="n">
+      <c r="V12" t="n">
         <v>2930.76</v>
       </c>
-      <c r="W12" s="103" t="n">
+      <c r="W12" t="n">
         <v>3039.45</v>
       </c>
-      <c r="X12" s="29" t="n">
+      <c r="X12" t="n">
         <v>2252.4</v>
       </c>
-      <c r="Y12" s="23" t="n">
+      <c r="Y12" t="n">
         <v>2045.93</v>
       </c>
-      <c r="Z12" s="18" t="n">
+      <c r="Z12" t="n">
         <v>2332.84</v>
       </c>
-      <c r="AA12" s="9" t="n">
+      <c r="AA12" t="n">
         <v>2304.94</v>
       </c>
-      <c r="AB12" s="113" t="n">
+      <c r="AB12" t="n">
         <v>2607.25</v>
       </c>
-      <c r="AC12" s="77" t="n">
+      <c r="AC12" t="n">
         <v>2835.24</v>
       </c>
-      <c r="AD12" s="58" t="n">
+      <c r="AD12" t="n">
         <v>2761.37</v>
       </c>
-      <c r="AE12" s="114" t="n">
+      <c r="AE12" t="n">
         <v>2279.3</v>
       </c>
-      <c r="AF12" s="27" t="n">
+      <c r="AF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2342,97 +1639,97 @@
           <t>May</t>
         </is>
       </c>
-      <c r="B13" s="101" t="n">
+      <c r="B13" t="n">
         <v>1873.48</v>
       </c>
-      <c r="C13" s="47" t="n">
+      <c r="C13" t="n">
         <v>1722.61</v>
       </c>
-      <c r="D13" s="21" t="n">
+      <c r="D13" t="n">
         <v>2096.95</v>
       </c>
-      <c r="E13" s="71" t="n">
+      <c r="E13" t="n">
         <v>2445.82</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" t="n">
         <v>2908.14</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" t="n">
         <v>3068.36</v>
       </c>
-      <c r="H13" s="19" t="n">
+      <c r="H13" t="n">
         <v>2222.98</v>
       </c>
-      <c r="I13" s="45" t="n">
+      <c r="I13" t="n">
         <v>1860.31</v>
       </c>
-      <c r="J13" s="27" t="n">
+      <c r="J13" t="n">
         <v>1462.23</v>
       </c>
-      <c r="K13" s="116" t="n">
+      <c r="K13" t="n">
         <v>1553.22</v>
       </c>
-      <c r="L13" s="56" t="n">
+      <c r="L13" t="n">
         <v>1783.02</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" t="n">
         <v>2821.87</v>
       </c>
-      <c r="N13" s="14" t="n">
+      <c r="N13" t="n">
         <v>2728.8</v>
       </c>
-      <c r="O13" s="109" t="n">
+      <c r="O13" t="n">
         <v>1711.45</v>
       </c>
-      <c r="P13" s="117" t="n">
+      <c r="P13" t="n">
         <v>1687.09</v>
       </c>
-      <c r="Q13" s="70" t="n">
+      <c r="Q13" t="n">
         <v>2412.61</v>
       </c>
-      <c r="R13" s="60" t="n">
+      <c r="R13" t="n">
         <v>2186.6</v>
       </c>
-      <c r="S13" s="62" t="n">
+      <c r="S13" t="n">
         <v>2233.65</v>
       </c>
-      <c r="T13" s="4" t="n">
+      <c r="T13" t="n">
         <v>2905.55</v>
       </c>
-      <c r="U13" s="88" t="n">
+      <c r="U13" t="n">
         <v>2600.11</v>
       </c>
-      <c r="V13" s="30" t="n">
+      <c r="V13" t="n">
         <v>2005.35</v>
       </c>
-      <c r="W13" s="118" t="n">
+      <c r="W13" t="n">
         <v>1629.19</v>
       </c>
-      <c r="X13" s="104" t="n">
+      <c r="X13" t="n">
         <v>1581.36</v>
       </c>
-      <c r="Y13" s="47" t="n">
+      <c r="Y13" t="n">
         <v>1715.97</v>
       </c>
-      <c r="Z13" s="45" t="n">
+      <c r="Z13" t="n">
         <v>1851.97</v>
       </c>
-      <c r="AA13" s="88" t="n">
+      <c r="AA13" t="n">
         <v>2593.34</v>
       </c>
-      <c r="AB13" s="67" t="n">
+      <c r="AB13" t="n">
         <v>2772.6</v>
       </c>
-      <c r="AC13" s="111" t="n">
+      <c r="AC13" t="n">
         <v>2336.36</v>
       </c>
-      <c r="AD13" s="45" t="n">
+      <c r="AD13" t="n">
         <v>1855.71</v>
       </c>
-      <c r="AE13" s="109" t="n">
+      <c r="AE13" t="n">
         <v>1711.96</v>
       </c>
-      <c r="AF13" s="60" t="n">
+      <c r="AF13" t="n">
         <v>2180.13</v>
       </c>
     </row>

--- a/Output/past_rev.xlsx
+++ b/Output/past_rev.xlsx
@@ -536,1201 +536,1201 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2187.19</v>
+        <v>2536.47</v>
       </c>
       <c r="C2" t="n">
-        <v>2592.83</v>
+        <v>1966.56</v>
       </c>
       <c r="D2" t="n">
-        <v>2777.49</v>
+        <v>1983.69</v>
       </c>
       <c r="E2" t="n">
-        <v>1841.34</v>
+        <v>1961.89</v>
       </c>
       <c r="F2" t="n">
-        <v>1811.38</v>
+        <v>2143.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1383.24</v>
+        <v>2396.32</v>
       </c>
       <c r="H2" t="n">
-        <v>1401.57</v>
+        <v>2813.02</v>
       </c>
       <c r="I2" t="n">
-        <v>2334.43</v>
+        <v>3105.58</v>
       </c>
       <c r="J2" t="n">
-        <v>3088.29</v>
+        <v>2116.08</v>
       </c>
       <c r="K2" t="n">
-        <v>3053.89</v>
+        <v>1238.87</v>
       </c>
       <c r="L2" t="n">
-        <v>2423.29</v>
+        <v>1595.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1932</v>
+        <v>1019.3</v>
       </c>
       <c r="N2" t="n">
-        <v>2170.75</v>
+        <v>1161.82</v>
       </c>
       <c r="O2" t="n">
-        <v>2601.64</v>
+        <v>1529.54</v>
       </c>
       <c r="P2" t="n">
-        <v>1609.52</v>
+        <v>1706.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2057.15</v>
+        <v>1173.18</v>
       </c>
       <c r="R2" t="n">
-        <v>2307.27</v>
+        <v>1045.66</v>
       </c>
       <c r="S2" t="n">
-        <v>2767.96</v>
+        <v>942.17</v>
       </c>
       <c r="T2" t="n">
-        <v>1908.31</v>
+        <v>1487.41</v>
       </c>
       <c r="U2" t="n">
-        <v>1447.26</v>
+        <v>1325.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1281.85</v>
+        <v>1329.34</v>
       </c>
       <c r="W2" t="n">
-        <v>1220.66</v>
+        <v>1261.66</v>
       </c>
       <c r="X2" t="n">
-        <v>1784.98</v>
+        <v>993.03</v>
       </c>
       <c r="Y2" t="n">
-        <v>2033.26</v>
+        <v>782.01</v>
       </c>
       <c r="Z2" t="n">
-        <v>2593.38</v>
+        <v>1058.48</v>
       </c>
       <c r="AA2" t="n">
-        <v>2048.9</v>
+        <v>1568.02</v>
       </c>
       <c r="AB2" t="n">
-        <v>1737.8</v>
+        <v>1657.23</v>
       </c>
       <c r="AC2" t="n">
-        <v>1272.14</v>
+        <v>2998.42</v>
       </c>
       <c r="AD2" t="n">
-        <v>1700.43</v>
+        <v>2828.66</v>
       </c>
       <c r="AE2" t="n">
-        <v>2336.67</v>
+        <v>2072.57</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1280.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2646.65</v>
+        <v>1315.63</v>
       </c>
       <c r="C3" t="n">
-        <v>2699.5</v>
+        <v>1054.56</v>
       </c>
       <c r="D3" t="n">
-        <v>2286.66</v>
+        <v>1663.54</v>
       </c>
       <c r="E3" t="n">
-        <v>1726.92</v>
+        <v>2485.01</v>
       </c>
       <c r="F3" t="n">
-        <v>1391.08</v>
+        <v>3256.14</v>
       </c>
       <c r="G3" t="n">
-        <v>1276.18</v>
+        <v>3100.64</v>
       </c>
       <c r="H3" t="n">
-        <v>1917.72</v>
+        <v>1472.18</v>
       </c>
       <c r="I3" t="n">
-        <v>2688.52</v>
+        <v>1323.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2147.39</v>
+        <v>1497.2</v>
       </c>
       <c r="K3" t="n">
-        <v>1301.5</v>
+        <v>1834.26</v>
       </c>
       <c r="L3" t="n">
-        <v>1229.67</v>
+        <v>1825.26</v>
       </c>
       <c r="M3" t="n">
-        <v>1445.78</v>
+        <v>2652.47</v>
       </c>
       <c r="N3" t="n">
-        <v>1680.3</v>
+        <v>2808.13</v>
       </c>
       <c r="O3" t="n">
-        <v>1668.45</v>
+        <v>1598.9</v>
       </c>
       <c r="P3" t="n">
-        <v>2595.91</v>
+        <v>1812.47</v>
       </c>
       <c r="Q3" t="n">
-        <v>2539.37</v>
+        <v>1662.45</v>
       </c>
       <c r="R3" t="n">
-        <v>1811.27</v>
+        <v>1761.84</v>
       </c>
       <c r="S3" t="n">
-        <v>1712.93</v>
+        <v>1870.79</v>
       </c>
       <c r="T3" t="n">
-        <v>1716.23</v>
+        <v>2645.32</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.14</v>
+        <v>2861.92</v>
       </c>
       <c r="V3" t="n">
-        <v>2207.14</v>
+        <v>1337.89</v>
       </c>
       <c r="W3" t="n">
-        <v>2446.6</v>
+        <v>1532.95</v>
       </c>
       <c r="X3" t="n">
-        <v>2630.78</v>
+        <v>1933.79</v>
       </c>
       <c r="Y3" t="n">
-        <v>1737.72</v>
+        <v>1579.15</v>
       </c>
       <c r="Z3" t="n">
-        <v>1588.34</v>
+        <v>1657.42</v>
       </c>
       <c r="AA3" t="n">
-        <v>1579.49</v>
+        <v>2145.63</v>
       </c>
       <c r="AB3" t="n">
-        <v>1465.46</v>
+        <v>2273.62</v>
       </c>
       <c r="AC3" t="n">
-        <v>1650.94</v>
+        <v>1496.68</v>
       </c>
       <c r="AD3" t="n">
-        <v>2693.21</v>
+        <v>953.0600000000001</v>
       </c>
       <c r="AE3" t="n">
-        <v>2621.04</v>
+        <v>1446.57</v>
       </c>
       <c r="AF3" t="n">
-        <v>1800.17</v>
+        <v>1476.74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1852.92</v>
+        <v>1964.37</v>
       </c>
       <c r="C4" t="n">
-        <v>1759.69</v>
+        <v>2346.49</v>
       </c>
       <c r="D4" t="n">
-        <v>1903.54</v>
+        <v>2490.84</v>
       </c>
       <c r="E4" t="n">
-        <v>1923.05</v>
+        <v>1795.5</v>
       </c>
       <c r="F4" t="n">
-        <v>2491.5</v>
+        <v>1346.66</v>
       </c>
       <c r="G4" t="n">
-        <v>2522.73</v>
+        <v>1342.32</v>
       </c>
       <c r="H4" t="n">
-        <v>1472.18</v>
+        <v>1383.99</v>
       </c>
       <c r="I4" t="n">
-        <v>1323.9</v>
+        <v>1891.87</v>
       </c>
       <c r="J4" t="n">
-        <v>1497.2</v>
+        <v>2761.61</v>
       </c>
       <c r="K4" t="n">
-        <v>1834.26</v>
+        <v>2636.78</v>
       </c>
       <c r="L4" t="n">
-        <v>1825.26</v>
+        <v>1938.45</v>
       </c>
       <c r="M4" t="n">
-        <v>2652.47</v>
+        <v>1647.99</v>
       </c>
       <c r="N4" t="n">
-        <v>2808.13</v>
+        <v>1594.06</v>
       </c>
       <c r="O4" t="n">
-        <v>1598.9</v>
+        <v>1697.6</v>
       </c>
       <c r="P4" t="n">
-        <v>1812.47</v>
+        <v>1674.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>1662.45</v>
+        <v>2882.21</v>
       </c>
       <c r="R4" t="n">
-        <v>1761.84</v>
+        <v>2838.72</v>
       </c>
       <c r="S4" t="n">
-        <v>1870.79</v>
+        <v>2217.78</v>
       </c>
       <c r="T4" t="n">
-        <v>2645.32</v>
+        <v>1759.17</v>
       </c>
       <c r="U4" t="n">
-        <v>2861.92</v>
+        <v>1900.21</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.89</v>
+        <v>1884.88</v>
       </c>
       <c r="W4" t="n">
-        <v>1532.95</v>
+        <v>2262.17</v>
       </c>
       <c r="X4" t="n">
-        <v>1933.79</v>
+        <v>2778.41</v>
       </c>
       <c r="Y4" t="n">
-        <v>1579.15</v>
+        <v>2865.29</v>
       </c>
       <c r="Z4" t="n">
-        <v>1657.42</v>
+        <v>2389.71</v>
       </c>
       <c r="AA4" t="n">
-        <v>2145.63</v>
+        <v>2169.62</v>
       </c>
       <c r="AB4" t="n">
-        <v>2273.62</v>
+        <v>2225.24</v>
       </c>
       <c r="AC4" t="n">
-        <v>1496.68</v>
+        <v>2118.74</v>
       </c>
       <c r="AD4" t="n">
-        <v>953.0600000000001</v>
+        <v>2403.24</v>
       </c>
       <c r="AE4" t="n">
-        <v>1446.57</v>
+        <v>2682.71</v>
       </c>
       <c r="AF4" t="n">
-        <v>1476.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1964.37</v>
+        <v>2728.29</v>
       </c>
       <c r="C5" t="n">
-        <v>2346.49</v>
+        <v>1527.88</v>
       </c>
       <c r="D5" t="n">
-        <v>2490.84</v>
+        <v>1244.03</v>
       </c>
       <c r="E5" t="n">
-        <v>1795.5</v>
+        <v>1702.41</v>
       </c>
       <c r="F5" t="n">
-        <v>1346.66</v>
+        <v>1799.99</v>
       </c>
       <c r="G5" t="n">
-        <v>1342.32</v>
+        <v>3338.04</v>
       </c>
       <c r="H5" t="n">
-        <v>1383.99</v>
+        <v>4299.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1891.87</v>
+        <v>4299.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2761.61</v>
+        <v>2660.13</v>
       </c>
       <c r="K5" t="n">
-        <v>2636.78</v>
+        <v>1311.81</v>
       </c>
       <c r="L5" t="n">
-        <v>1938.45</v>
+        <v>930.9400000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>1647.99</v>
+        <v>1622.68</v>
       </c>
       <c r="N5" t="n">
-        <v>1594.06</v>
+        <v>3331.39</v>
       </c>
       <c r="O5" t="n">
-        <v>1697.6</v>
+        <v>4262.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1674.78</v>
+        <v>4659.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>2882.21</v>
+        <v>3015</v>
       </c>
       <c r="R5" t="n">
-        <v>2838.72</v>
+        <v>1366</v>
       </c>
       <c r="S5" t="n">
-        <v>2217.78</v>
+        <v>1552</v>
       </c>
       <c r="T5" t="n">
-        <v>1759.17</v>
+        <v>1817.31</v>
       </c>
       <c r="U5" t="n">
-        <v>1900.21</v>
+        <v>3169.31</v>
       </c>
       <c r="V5" t="n">
-        <v>1884.88</v>
+        <v>4145.96</v>
       </c>
       <c r="W5" t="n">
-        <v>2262.17</v>
+        <v>4388.96</v>
       </c>
       <c r="X5" t="n">
-        <v>2778.41</v>
+        <v>2609.16</v>
       </c>
       <c r="Y5" t="n">
-        <v>2865.29</v>
+        <v>1378</v>
       </c>
       <c r="Z5" t="n">
-        <v>2389.71</v>
+        <v>674</v>
       </c>
       <c r="AA5" t="n">
-        <v>2169.62</v>
+        <v>1371</v>
       </c>
       <c r="AB5" t="n">
-        <v>2225.24</v>
+        <v>2519</v>
       </c>
       <c r="AC5" t="n">
-        <v>2118.74</v>
+        <v>3858</v>
       </c>
       <c r="AD5" t="n">
-        <v>2403.24</v>
+        <v>3957</v>
       </c>
       <c r="AE5" t="n">
-        <v>2682.71</v>
+        <v>2182</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Oct</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2728.29</v>
+        <v>1081</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.88</v>
+        <v>1060</v>
       </c>
       <c r="D6" t="n">
-        <v>1244.03</v>
+        <v>1265</v>
       </c>
       <c r="E6" t="n">
-        <v>1702.41</v>
+        <v>2496.12</v>
       </c>
       <c r="F6" t="n">
-        <v>1799.99</v>
+        <v>2359.67</v>
       </c>
       <c r="G6" t="n">
-        <v>3338.04</v>
+        <v>1332.86</v>
       </c>
       <c r="H6" t="n">
-        <v>4299.6</v>
+        <v>1092.77</v>
       </c>
       <c r="I6" t="n">
-        <v>4299.6</v>
+        <v>1540.06</v>
       </c>
       <c r="J6" t="n">
-        <v>2660.13</v>
+        <v>1842.56</v>
       </c>
       <c r="K6" t="n">
-        <v>1311.81</v>
+        <v>2427.23</v>
       </c>
       <c r="L6" t="n">
-        <v>930.9400000000001</v>
+        <v>3370.15</v>
       </c>
       <c r="M6" t="n">
-        <v>1622.68</v>
+        <v>3511.04</v>
       </c>
       <c r="N6" t="n">
-        <v>3331.39</v>
+        <v>2489.06</v>
       </c>
       <c r="O6" t="n">
-        <v>4262.4</v>
+        <v>2026.77</v>
       </c>
       <c r="P6" t="n">
-        <v>4659.92</v>
+        <v>2339.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>3015</v>
+        <v>2192.86</v>
       </c>
       <c r="R6" t="n">
-        <v>1366</v>
+        <v>2259.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1552</v>
+        <v>2687.43</v>
       </c>
       <c r="T6" t="n">
-        <v>1817.31</v>
+        <v>2596.83</v>
       </c>
       <c r="U6" t="n">
-        <v>3169.31</v>
+        <v>1501.58</v>
       </c>
       <c r="V6" t="n">
-        <v>4145.96</v>
+        <v>1400.94</v>
       </c>
       <c r="W6" t="n">
-        <v>4388.96</v>
+        <v>1250.94</v>
       </c>
       <c r="X6" t="n">
-        <v>2609.16</v>
+        <v>1297.78</v>
       </c>
       <c r="Y6" t="n">
-        <v>1378</v>
+        <v>1756.93</v>
       </c>
       <c r="Z6" t="n">
-        <v>674</v>
+        <v>2306.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>1371</v>
+        <v>2065.47</v>
       </c>
       <c r="AB6" t="n">
-        <v>2519</v>
+        <v>1056.47</v>
       </c>
       <c r="AC6" t="n">
-        <v>3858</v>
+        <v>1423.04</v>
       </c>
       <c r="AD6" t="n">
-        <v>3957</v>
+        <v>1332.66</v>
       </c>
       <c r="AE6" t="n">
-        <v>2182</v>
+        <v>1453.6</v>
       </c>
       <c r="AF6" t="n">
-        <v>1074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1081</v>
+        <v>2013.82</v>
       </c>
       <c r="C7" t="n">
-        <v>1060</v>
+        <v>2167.28</v>
       </c>
       <c r="D7" t="n">
-        <v>1265</v>
+        <v>2413.05</v>
       </c>
       <c r="E7" t="n">
-        <v>2496.12</v>
+        <v>1245.1</v>
       </c>
       <c r="F7" t="n">
-        <v>2359.67</v>
+        <v>1267.94</v>
       </c>
       <c r="G7" t="n">
-        <v>1332.86</v>
+        <v>1708.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1092.77</v>
+        <v>1816.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1540.06</v>
+        <v>1957.34</v>
       </c>
       <c r="J7" t="n">
-        <v>1842.56</v>
+        <v>2172.97</v>
       </c>
       <c r="K7" t="n">
-        <v>2427.23</v>
+        <v>2178.52</v>
       </c>
       <c r="L7" t="n">
-        <v>3370.15</v>
+        <v>1728.45</v>
       </c>
       <c r="M7" t="n">
-        <v>3511.04</v>
+        <v>1528.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2489.06</v>
+        <v>1431.96</v>
       </c>
       <c r="O7" t="n">
-        <v>2026.77</v>
+        <v>1235.86</v>
       </c>
       <c r="P7" t="n">
-        <v>2339.44</v>
+        <v>1299.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2192.86</v>
+        <v>1515.59</v>
       </c>
       <c r="R7" t="n">
-        <v>2259.83</v>
+        <v>1966.61</v>
       </c>
       <c r="S7" t="n">
-        <v>2687.43</v>
+        <v>1566.94</v>
       </c>
       <c r="T7" t="n">
-        <v>2596.83</v>
+        <v>1122.85</v>
       </c>
       <c r="U7" t="n">
-        <v>1501.58</v>
+        <v>924.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1400.94</v>
+        <v>1060.46</v>
       </c>
       <c r="W7" t="n">
-        <v>1250.94</v>
+        <v>1498.91</v>
       </c>
       <c r="X7" t="n">
-        <v>1297.78</v>
+        <v>1199.33</v>
       </c>
       <c r="Y7" t="n">
-        <v>1756.93</v>
+        <v>1585.29</v>
       </c>
       <c r="Z7" t="n">
-        <v>2306.3</v>
+        <v>889.1899999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>2065.47</v>
+        <v>853.99</v>
       </c>
       <c r="AB7" t="n">
-        <v>1056.47</v>
+        <v>930.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>1423.04</v>
+        <v>1286.89</v>
       </c>
       <c r="AD7" t="n">
-        <v>1332.66</v>
+        <v>1536.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>1453.6</v>
+        <v>2451.1</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>2528.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Dec</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2013.82</v>
+        <v>1599.57</v>
       </c>
       <c r="C8" t="n">
-        <v>2167.28</v>
+        <v>1549.11</v>
       </c>
       <c r="D8" t="n">
-        <v>2413.05</v>
+        <v>1217.86</v>
       </c>
       <c r="E8" t="n">
-        <v>1245.1</v>
+        <v>1523.08</v>
       </c>
       <c r="F8" t="n">
-        <v>1267.94</v>
+        <v>2132.95</v>
       </c>
       <c r="G8" t="n">
-        <v>1708.6</v>
+        <v>2255.47</v>
       </c>
       <c r="H8" t="n">
-        <v>1816.3</v>
+        <v>2296.76</v>
       </c>
       <c r="I8" t="n">
-        <v>1957.34</v>
+        <v>1332.12</v>
       </c>
       <c r="J8" t="n">
-        <v>2172.97</v>
+        <v>1217.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2178.52</v>
+        <v>1227.79</v>
       </c>
       <c r="L8" t="n">
-        <v>1728.45</v>
+        <v>1400.66</v>
       </c>
       <c r="M8" t="n">
-        <v>1528.1</v>
+        <v>1767.97</v>
       </c>
       <c r="N8" t="n">
-        <v>1431.96</v>
+        <v>2528.91</v>
       </c>
       <c r="O8" t="n">
-        <v>1235.86</v>
+        <v>2702.44</v>
       </c>
       <c r="P8" t="n">
-        <v>1299.45</v>
+        <v>1901.71</v>
       </c>
       <c r="Q8" t="n">
-        <v>1515.59</v>
+        <v>1492.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1966.61</v>
+        <v>1036.32</v>
       </c>
       <c r="S8" t="n">
-        <v>1566.94</v>
+        <v>942.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1122.85</v>
+        <v>1431.18</v>
       </c>
       <c r="U8" t="n">
-        <v>924.2</v>
+        <v>1755.35</v>
       </c>
       <c r="V8" t="n">
-        <v>1060.46</v>
+        <v>2159.82</v>
       </c>
       <c r="W8" t="n">
-        <v>1498.91</v>
+        <v>1007.45</v>
       </c>
       <c r="X8" t="n">
-        <v>1199.33</v>
+        <v>859.77</v>
       </c>
       <c r="Y8" t="n">
-        <v>1585.29</v>
+        <v>709.8099999999999</v>
       </c>
       <c r="Z8" t="n">
-        <v>889.1899999999999</v>
+        <v>940.33</v>
       </c>
       <c r="AA8" t="n">
-        <v>853.99</v>
+        <v>1956.17</v>
       </c>
       <c r="AB8" t="n">
-        <v>930.4</v>
+        <v>2741.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>1286.89</v>
+        <v>2549.49</v>
       </c>
       <c r="AD8" t="n">
-        <v>1536.4</v>
+        <v>1799.21</v>
       </c>
       <c r="AE8" t="n">
-        <v>2451.1</v>
+        <v>1003.05</v>
       </c>
       <c r="AF8" t="n">
-        <v>2528.23</v>
+        <v>975.8100000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1599.57</v>
+        <v>1165.21</v>
       </c>
       <c r="C9" t="n">
-        <v>1549.11</v>
+        <v>1514.11</v>
       </c>
       <c r="D9" t="n">
-        <v>1217.86</v>
+        <v>2100.82</v>
       </c>
       <c r="E9" t="n">
-        <v>1523.08</v>
+        <v>2641.99</v>
       </c>
       <c r="F9" t="n">
-        <v>2132.95</v>
+        <v>1485.32</v>
       </c>
       <c r="G9" t="n">
-        <v>2255.47</v>
+        <v>1646.96</v>
       </c>
       <c r="H9" t="n">
-        <v>2296.76</v>
+        <v>1450.48</v>
       </c>
       <c r="I9" t="n">
-        <v>1332.12</v>
+        <v>1594.93</v>
       </c>
       <c r="J9" t="n">
-        <v>1217.88</v>
+        <v>1886</v>
       </c>
       <c r="K9" t="n">
-        <v>1227.79</v>
+        <v>2439.54</v>
       </c>
       <c r="L9" t="n">
-        <v>1400.66</v>
+        <v>2820.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1767.97</v>
+        <v>1700.08</v>
       </c>
       <c r="N9" t="n">
-        <v>2528.91</v>
+        <v>1498.16</v>
       </c>
       <c r="O9" t="n">
-        <v>2702.44</v>
+        <v>1641.12</v>
       </c>
       <c r="P9" t="n">
-        <v>1901.71</v>
+        <v>1550.53</v>
       </c>
       <c r="Q9" t="n">
-        <v>1492.6</v>
+        <v>1840.42</v>
       </c>
       <c r="R9" t="n">
-        <v>1036.32</v>
+        <v>2588.75</v>
       </c>
       <c r="S9" t="n">
-        <v>942.85</v>
+        <v>2505.78</v>
       </c>
       <c r="T9" t="n">
-        <v>1431.18</v>
+        <v>2047.98</v>
       </c>
       <c r="U9" t="n">
-        <v>1755.35</v>
+        <v>1423.86</v>
       </c>
       <c r="V9" t="n">
-        <v>2159.82</v>
+        <v>1396.24</v>
       </c>
       <c r="W9" t="n">
-        <v>1007.45</v>
+        <v>1412.21</v>
       </c>
       <c r="X9" t="n">
-        <v>859.77</v>
+        <v>1650.95</v>
       </c>
       <c r="Y9" t="n">
-        <v>709.8099999999999</v>
+        <v>2596.89</v>
       </c>
       <c r="Z9" t="n">
-        <v>940.33</v>
+        <v>2581.61</v>
       </c>
       <c r="AA9" t="n">
-        <v>1956.17</v>
+        <v>1795.81</v>
       </c>
       <c r="AB9" t="n">
-        <v>2741.1</v>
+        <v>1283.44</v>
       </c>
       <c r="AC9" t="n">
-        <v>2549.49</v>
+        <v>1458.54</v>
       </c>
       <c r="AD9" t="n">
-        <v>1799.21</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1003.05</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>975.8100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Feb</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1165.21</v>
+        <v>1544.81</v>
       </c>
       <c r="C10" t="n">
-        <v>1514.11</v>
+        <v>1743.87</v>
       </c>
       <c r="D10" t="n">
-        <v>2100.82</v>
+        <v>2382.2</v>
       </c>
       <c r="E10" t="n">
-        <v>2641.99</v>
+        <v>2767.42</v>
       </c>
       <c r="F10" t="n">
-        <v>1485.32</v>
+        <v>2210.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1646.96</v>
+        <v>2016.15</v>
       </c>
       <c r="H10" t="n">
-        <v>1450.48</v>
+        <v>1603.56</v>
       </c>
       <c r="I10" t="n">
-        <v>1594.93</v>
+        <v>2077.22</v>
       </c>
       <c r="J10" t="n">
-        <v>1886</v>
+        <v>3380</v>
       </c>
       <c r="K10" t="n">
-        <v>2439.54</v>
+        <v>5409</v>
       </c>
       <c r="L10" t="n">
-        <v>2820.3</v>
+        <v>5498</v>
       </c>
       <c r="M10" t="n">
-        <v>1700.08</v>
+        <v>3980</v>
       </c>
       <c r="N10" t="n">
-        <v>1498.16</v>
+        <v>3096</v>
       </c>
       <c r="O10" t="n">
-        <v>1641.12</v>
+        <v>2811</v>
       </c>
       <c r="P10" t="n">
-        <v>1550.53</v>
+        <v>2810.45</v>
       </c>
       <c r="Q10" t="n">
-        <v>1840.42</v>
+        <v>3764.7</v>
       </c>
       <c r="R10" t="n">
-        <v>2588.75</v>
+        <v>5130.83</v>
       </c>
       <c r="S10" t="n">
-        <v>2505.78</v>
+        <v>4760.35</v>
       </c>
       <c r="T10" t="n">
-        <v>2047.98</v>
+        <v>2391.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1423.86</v>
+        <v>1057.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1396.24</v>
+        <v>1123.21</v>
       </c>
       <c r="W10" t="n">
-        <v>1412.21</v>
+        <v>2013.88</v>
       </c>
       <c r="X10" t="n">
-        <v>1650.95</v>
+        <v>2487.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>2596.89</v>
+        <v>2964.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>2581.61</v>
+        <v>2963.76</v>
       </c>
       <c r="AA10" t="n">
-        <v>1795.81</v>
+        <v>2039.38</v>
       </c>
       <c r="AB10" t="n">
-        <v>1283.44</v>
+        <v>2078.52</v>
       </c>
       <c r="AC10" t="n">
-        <v>1458.54</v>
+        <v>2044.33</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>2493.45</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>2252.55</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>2763.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1544.81</v>
+        <v>2785.23</v>
       </c>
       <c r="C11" t="n">
-        <v>1743.87</v>
+        <v>2119.07</v>
       </c>
       <c r="D11" t="n">
-        <v>2382.2</v>
+        <v>1685.46</v>
       </c>
       <c r="E11" t="n">
-        <v>2767.42</v>
+        <v>1789.18</v>
       </c>
       <c r="F11" t="n">
-        <v>2210.8</v>
+        <v>1809.45</v>
       </c>
       <c r="G11" t="n">
-        <v>2016.15</v>
+        <v>2183.22</v>
       </c>
       <c r="H11" t="n">
-        <v>1603.56</v>
+        <v>2830.51</v>
       </c>
       <c r="I11" t="n">
-        <v>2077.22</v>
+        <v>2427.86</v>
       </c>
       <c r="J11" t="n">
-        <v>3380</v>
+        <v>1724.51</v>
       </c>
       <c r="K11" t="n">
-        <v>5409</v>
+        <v>1097.92</v>
       </c>
       <c r="L11" t="n">
-        <v>5498</v>
+        <v>1572.46</v>
       </c>
       <c r="M11" t="n">
-        <v>3980</v>
+        <v>1926.88</v>
       </c>
       <c r="N11" t="n">
-        <v>3096</v>
+        <v>2385.46</v>
       </c>
       <c r="O11" t="n">
-        <v>2811</v>
+        <v>3079.85</v>
       </c>
       <c r="P11" t="n">
-        <v>2810.45</v>
+        <v>3104.01</v>
       </c>
       <c r="Q11" t="n">
-        <v>3764.7</v>
+        <v>2602.41</v>
       </c>
       <c r="R11" t="n">
-        <v>5130.83</v>
+        <v>2002.03</v>
       </c>
       <c r="S11" t="n">
-        <v>4760.35</v>
+        <v>2036.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2391.05</v>
+        <v>2278.68</v>
       </c>
       <c r="U11" t="n">
-        <v>1057.05</v>
+        <v>2469.47</v>
       </c>
       <c r="V11" t="n">
-        <v>1123.21</v>
+        <v>2930.76</v>
       </c>
       <c r="W11" t="n">
-        <v>2013.88</v>
+        <v>3039.45</v>
       </c>
       <c r="X11" t="n">
-        <v>2487.2</v>
+        <v>2252.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>2964.8</v>
+        <v>2045.93</v>
       </c>
       <c r="Z11" t="n">
-        <v>2963.76</v>
+        <v>2332.84</v>
       </c>
       <c r="AA11" t="n">
-        <v>2039.38</v>
+        <v>2304.94</v>
       </c>
       <c r="AB11" t="n">
-        <v>2078.52</v>
+        <v>2607.25</v>
       </c>
       <c r="AC11" t="n">
-        <v>2044.33</v>
+        <v>2835.24</v>
       </c>
       <c r="AD11" t="n">
-        <v>2493.45</v>
+        <v>2761.37</v>
       </c>
       <c r="AE11" t="n">
-        <v>2252.55</v>
+        <v>2279.3</v>
       </c>
       <c r="AF11" t="n">
-        <v>2763.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Apr</t>
+          <t>May</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2785.23</v>
+        <v>1873.48</v>
       </c>
       <c r="C12" t="n">
-        <v>2119.07</v>
+        <v>1722.61</v>
       </c>
       <c r="D12" t="n">
-        <v>1685.46</v>
+        <v>2096.95</v>
       </c>
       <c r="E12" t="n">
-        <v>1789.18</v>
+        <v>2445.82</v>
       </c>
       <c r="F12" t="n">
-        <v>1809.45</v>
+        <v>2908.14</v>
       </c>
       <c r="G12" t="n">
-        <v>2183.22</v>
+        <v>3068.36</v>
       </c>
       <c r="H12" t="n">
-        <v>2830.51</v>
+        <v>2222.98</v>
       </c>
       <c r="I12" t="n">
-        <v>2427.86</v>
+        <v>1860.31</v>
       </c>
       <c r="J12" t="n">
-        <v>1724.51</v>
+        <v>1462.23</v>
       </c>
       <c r="K12" t="n">
-        <v>1097.92</v>
+        <v>1553.22</v>
       </c>
       <c r="L12" t="n">
-        <v>1572.46</v>
+        <v>1783.02</v>
       </c>
       <c r="M12" t="n">
-        <v>1926.88</v>
+        <v>2821.87</v>
       </c>
       <c r="N12" t="n">
-        <v>2385.46</v>
+        <v>2728.8</v>
       </c>
       <c r="O12" t="n">
-        <v>3079.85</v>
+        <v>1711.45</v>
       </c>
       <c r="P12" t="n">
-        <v>3104.01</v>
+        <v>1687.09</v>
       </c>
       <c r="Q12" t="n">
-        <v>2602.41</v>
+        <v>2412.61</v>
       </c>
       <c r="R12" t="n">
-        <v>2002.03</v>
+        <v>2186.6</v>
       </c>
       <c r="S12" t="n">
-        <v>2036.8</v>
+        <v>2233.65</v>
       </c>
       <c r="T12" t="n">
-        <v>2278.68</v>
+        <v>2905.55</v>
       </c>
       <c r="U12" t="n">
-        <v>2469.47</v>
+        <v>2600.11</v>
       </c>
       <c r="V12" t="n">
-        <v>2930.76</v>
+        <v>2005.35</v>
       </c>
       <c r="W12" t="n">
-        <v>3039.45</v>
+        <v>1629.19</v>
       </c>
       <c r="X12" t="n">
-        <v>2252.4</v>
+        <v>1581.36</v>
       </c>
       <c r="Y12" t="n">
-        <v>2045.93</v>
+        <v>1715.97</v>
       </c>
       <c r="Z12" t="n">
-        <v>2332.84</v>
+        <v>1851.97</v>
       </c>
       <c r="AA12" t="n">
-        <v>2304.94</v>
+        <v>2593.34</v>
       </c>
       <c r="AB12" t="n">
-        <v>2607.25</v>
+        <v>2772.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>2835.24</v>
+        <v>2336.36</v>
       </c>
       <c r="AD12" t="n">
-        <v>2761.37</v>
+        <v>1855.71</v>
       </c>
       <c r="AE12" t="n">
-        <v>2279.3</v>
+        <v>1711.96</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2180.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1873.48</v>
+        <v>2148.19</v>
       </c>
       <c r="C13" t="n">
-        <v>1722.61</v>
+        <v>2510.83</v>
       </c>
       <c r="D13" t="n">
-        <v>2096.95</v>
+        <v>2673.49</v>
       </c>
       <c r="E13" t="n">
-        <v>2445.82</v>
+        <v>1737.34</v>
       </c>
       <c r="F13" t="n">
-        <v>2908.14</v>
+        <v>1729.38</v>
       </c>
       <c r="G13" t="n">
-        <v>3068.36</v>
+        <v>1305.24</v>
       </c>
       <c r="H13" t="n">
-        <v>2222.98</v>
+        <v>1323.57</v>
       </c>
       <c r="I13" t="n">
-        <v>1860.31</v>
+        <v>2102.85</v>
       </c>
       <c r="J13" t="n">
-        <v>1462.23</v>
+        <v>2850.71</v>
       </c>
       <c r="K13" t="n">
-        <v>1553.22</v>
+        <v>2839.31</v>
       </c>
       <c r="L13" t="n">
-        <v>1783.02</v>
+        <v>2136.03</v>
       </c>
       <c r="M13" t="n">
-        <v>2821.87</v>
+        <v>1524.36</v>
       </c>
       <c r="N13" t="n">
-        <v>2728.8</v>
+        <v>1730.56</v>
       </c>
       <c r="O13" t="n">
-        <v>1711.45</v>
+        <v>1880.75</v>
       </c>
       <c r="P13" t="n">
-        <v>1687.09</v>
+        <v>2282</v>
       </c>
       <c r="Q13" t="n">
-        <v>2412.61</v>
+        <v>2694.47</v>
       </c>
       <c r="R13" t="n">
-        <v>2186.6</v>
+        <v>2317.72</v>
       </c>
       <c r="S13" t="n">
-        <v>2233.65</v>
+        <v>2012.89</v>
       </c>
       <c r="T13" t="n">
-        <v>2905.55</v>
+        <v>1640.73</v>
       </c>
       <c r="U13" t="n">
-        <v>2600.11</v>
+        <v>1622.03</v>
       </c>
       <c r="V13" t="n">
-        <v>2005.35</v>
+        <v>1707.85</v>
       </c>
       <c r="W13" t="n">
-        <v>1629.19</v>
+        <v>1569.31</v>
       </c>
       <c r="X13" t="n">
-        <v>1581.36</v>
+        <v>2461.27</v>
       </c>
       <c r="Y13" t="n">
-        <v>1715.97</v>
+        <v>2723.49</v>
       </c>
       <c r="Z13" t="n">
-        <v>1851.97</v>
+        <v>2174.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>2593.34</v>
+        <v>1682.07</v>
       </c>
       <c r="AB13" t="n">
-        <v>2772.6</v>
+        <v>1591.51</v>
       </c>
       <c r="AC13" t="n">
-        <v>2336.36</v>
+        <v>990.24</v>
       </c>
       <c r="AD13" t="n">
-        <v>1855.71</v>
+        <v>1385.42</v>
       </c>
       <c r="AE13" t="n">
-        <v>1711.96</v>
+        <v>2359.58</v>
       </c>
       <c r="AF13" t="n">
-        <v>2180.13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Output/past_rev.xlsx
+++ b/Output/past_rev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1302 +434,1459 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>Year</t>
         </is>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Jul</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2536.47</v>
+        <v>2023</v>
       </c>
       <c r="C2" t="n">
-        <v>1966.56</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1983.69</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1961.89</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2143.7</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2396.32</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2813.02</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3105.58</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2116.08</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1238.87</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1595.34</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1019.3</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1161.82</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1529.54</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1706.38</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1173.18</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1045.66</v>
+        <v>37</v>
       </c>
       <c r="S2" t="n">
-        <v>942.17</v>
+        <v>187.99</v>
       </c>
       <c r="T2" t="n">
-        <v>1487.41</v>
+        <v>662.37</v>
       </c>
       <c r="U2" t="n">
-        <v>1325.94</v>
+        <v>1543.51</v>
       </c>
       <c r="V2" t="n">
-        <v>1329.34</v>
+        <v>2047.98</v>
       </c>
       <c r="W2" t="n">
-        <v>1261.66</v>
+        <v>1423.86</v>
       </c>
       <c r="X2" t="n">
-        <v>993.03</v>
+        <v>1396.24</v>
       </c>
       <c r="Y2" t="n">
-        <v>782.01</v>
+        <v>1412.21</v>
       </c>
       <c r="Z2" t="n">
-        <v>1058.48</v>
+        <v>1650.95</v>
       </c>
       <c r="AA2" t="n">
-        <v>1568.02</v>
+        <v>2596.89</v>
       </c>
       <c r="AB2" t="n">
-        <v>1657.23</v>
+        <v>2581.61</v>
       </c>
       <c r="AC2" t="n">
-        <v>2998.42</v>
+        <v>1795.81</v>
       </c>
       <c r="AD2" t="n">
-        <v>2828.66</v>
+        <v>1283.44</v>
       </c>
       <c r="AE2" t="n">
-        <v>2072.57</v>
+        <v>1458.54</v>
       </c>
       <c r="AF2" t="n">
-        <v>1280.44</v>
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Aug</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1315.63</v>
+        <v>2023</v>
       </c>
       <c r="C3" t="n">
-        <v>1054.56</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1663.54</v>
+        <v>1544.81</v>
       </c>
       <c r="E3" t="n">
-        <v>2485.01</v>
+        <v>1743.87</v>
       </c>
       <c r="F3" t="n">
-        <v>3256.14</v>
+        <v>2382.2</v>
       </c>
       <c r="G3" t="n">
-        <v>3100.64</v>
+        <v>2767.42</v>
       </c>
       <c r="H3" t="n">
-        <v>1472.18</v>
+        <v>2210.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1323.9</v>
+        <v>2016.15</v>
       </c>
       <c r="J3" t="n">
-        <v>1497.2</v>
+        <v>1603.56</v>
       </c>
       <c r="K3" t="n">
-        <v>1834.26</v>
+        <v>2077.22</v>
       </c>
       <c r="L3" t="n">
-        <v>1825.26</v>
+        <v>3380</v>
       </c>
       <c r="M3" t="n">
-        <v>2652.47</v>
+        <v>5409</v>
       </c>
       <c r="N3" t="n">
-        <v>2808.13</v>
+        <v>5498</v>
       </c>
       <c r="O3" t="n">
-        <v>1598.9</v>
+        <v>3980</v>
       </c>
       <c r="P3" t="n">
-        <v>1812.47</v>
+        <v>3096</v>
       </c>
       <c r="Q3" t="n">
-        <v>1662.45</v>
+        <v>2811</v>
       </c>
       <c r="R3" t="n">
-        <v>1761.84</v>
+        <v>2810.45</v>
       </c>
       <c r="S3" t="n">
-        <v>1870.79</v>
+        <v>3764.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2645.32</v>
+        <v>5130.83</v>
       </c>
       <c r="U3" t="n">
-        <v>2861.92</v>
+        <v>4760.35</v>
       </c>
       <c r="V3" t="n">
-        <v>1337.89</v>
+        <v>2391.05</v>
       </c>
       <c r="W3" t="n">
-        <v>1532.95</v>
+        <v>1057.05</v>
       </c>
       <c r="X3" t="n">
-        <v>1933.79</v>
+        <v>1123.21</v>
       </c>
       <c r="Y3" t="n">
-        <v>1579.15</v>
+        <v>2013.88</v>
       </c>
       <c r="Z3" t="n">
-        <v>1657.42</v>
+        <v>2487.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>2145.63</v>
+        <v>2964.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>2273.62</v>
+        <v>2963.76</v>
       </c>
       <c r="AC3" t="n">
-        <v>1496.68</v>
+        <v>2039.38</v>
       </c>
       <c r="AD3" t="n">
-        <v>953.0600000000001</v>
+        <v>2078.52</v>
       </c>
       <c r="AE3" t="n">
-        <v>1446.57</v>
+        <v>2044.33</v>
       </c>
       <c r="AF3" t="n">
-        <v>1476.74</v>
+        <v>2493.45</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2252.55</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2763.49</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Sep</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1964.37</v>
+        <v>2023</v>
       </c>
       <c r="C4" t="n">
-        <v>2346.49</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2490.84</v>
+        <v>2785.23</v>
       </c>
       <c r="E4" t="n">
-        <v>1795.5</v>
+        <v>2119.07</v>
       </c>
       <c r="F4" t="n">
-        <v>1346.66</v>
+        <v>1685.46</v>
       </c>
       <c r="G4" t="n">
-        <v>1342.32</v>
+        <v>1789.18</v>
       </c>
       <c r="H4" t="n">
-        <v>1383.99</v>
+        <v>1809.45</v>
       </c>
       <c r="I4" t="n">
-        <v>1891.87</v>
+        <v>2183.22</v>
       </c>
       <c r="J4" t="n">
-        <v>2761.61</v>
+        <v>2830.51</v>
       </c>
       <c r="K4" t="n">
-        <v>2636.78</v>
+        <v>2427.86</v>
       </c>
       <c r="L4" t="n">
-        <v>1938.45</v>
+        <v>1724.51</v>
       </c>
       <c r="M4" t="n">
-        <v>1647.99</v>
+        <v>1097.92</v>
       </c>
       <c r="N4" t="n">
-        <v>1594.06</v>
+        <v>1572.46</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.6</v>
+        <v>1926.88</v>
       </c>
       <c r="P4" t="n">
-        <v>1674.78</v>
+        <v>2385.46</v>
       </c>
       <c r="Q4" t="n">
-        <v>2882.21</v>
+        <v>3079.85</v>
       </c>
       <c r="R4" t="n">
-        <v>2838.72</v>
+        <v>3104.01</v>
       </c>
       <c r="S4" t="n">
-        <v>2217.78</v>
+        <v>2602.41</v>
       </c>
       <c r="T4" t="n">
-        <v>1759.17</v>
+        <v>2002.03</v>
       </c>
       <c r="U4" t="n">
-        <v>1900.21</v>
+        <v>2036.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1884.88</v>
+        <v>2278.68</v>
       </c>
       <c r="W4" t="n">
-        <v>2262.17</v>
+        <v>2469.47</v>
       </c>
       <c r="X4" t="n">
-        <v>2778.41</v>
+        <v>2930.76</v>
       </c>
       <c r="Y4" t="n">
-        <v>2865.29</v>
+        <v>3039.45</v>
       </c>
       <c r="Z4" t="n">
-        <v>2389.71</v>
+        <v>2252.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>2169.62</v>
+        <v>2045.93</v>
       </c>
       <c r="AB4" t="n">
-        <v>2225.24</v>
+        <v>2332.84</v>
       </c>
       <c r="AC4" t="n">
-        <v>2118.74</v>
+        <v>2304.94</v>
       </c>
       <c r="AD4" t="n">
-        <v>2403.24</v>
+        <v>2607.25</v>
       </c>
       <c r="AE4" t="n">
-        <v>2682.71</v>
+        <v>2835.24</v>
       </c>
       <c r="AF4" t="n">
+        <v>2761.37</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2279.3</v>
+      </c>
+      <c r="AH4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2728.29</v>
+        <v>2023</v>
       </c>
       <c r="C5" t="n">
-        <v>1527.88</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1244.03</v>
+        <v>1873.48</v>
       </c>
       <c r="E5" t="n">
-        <v>1702.41</v>
+        <v>1722.61</v>
       </c>
       <c r="F5" t="n">
-        <v>1799.99</v>
+        <v>2096.95</v>
       </c>
       <c r="G5" t="n">
-        <v>3338.04</v>
+        <v>2445.82</v>
       </c>
       <c r="H5" t="n">
-        <v>4299.6</v>
+        <v>2908.14</v>
       </c>
       <c r="I5" t="n">
-        <v>4299.6</v>
+        <v>3068.36</v>
       </c>
       <c r="J5" t="n">
-        <v>2660.13</v>
+        <v>2222.98</v>
       </c>
       <c r="K5" t="n">
-        <v>1311.81</v>
+        <v>1860.31</v>
       </c>
       <c r="L5" t="n">
-        <v>930.9400000000001</v>
+        <v>1462.23</v>
       </c>
       <c r="M5" t="n">
-        <v>1622.68</v>
+        <v>1553.22</v>
       </c>
       <c r="N5" t="n">
-        <v>3331.39</v>
+        <v>1783.02</v>
       </c>
       <c r="O5" t="n">
-        <v>4262.4</v>
+        <v>2821.87</v>
       </c>
       <c r="P5" t="n">
-        <v>4659.92</v>
+        <v>2728.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>3015</v>
+        <v>1711.45</v>
       </c>
       <c r="R5" t="n">
-        <v>1366</v>
+        <v>1687.09</v>
       </c>
       <c r="S5" t="n">
-        <v>1552</v>
+        <v>2412.61</v>
       </c>
       <c r="T5" t="n">
-        <v>1817.31</v>
+        <v>2186.6</v>
       </c>
       <c r="U5" t="n">
-        <v>3169.31</v>
+        <v>2233.65</v>
       </c>
       <c r="V5" t="n">
-        <v>4145.96</v>
+        <v>2905.55</v>
       </c>
       <c r="W5" t="n">
-        <v>4388.96</v>
+        <v>2600.11</v>
       </c>
       <c r="X5" t="n">
-        <v>2609.16</v>
+        <v>2005.35</v>
       </c>
       <c r="Y5" t="n">
-        <v>1378</v>
+        <v>1629.19</v>
       </c>
       <c r="Z5" t="n">
-        <v>674</v>
+        <v>1581.36</v>
       </c>
       <c r="AA5" t="n">
-        <v>1371</v>
+        <v>1715.97</v>
       </c>
       <c r="AB5" t="n">
-        <v>2519</v>
+        <v>1851.97</v>
       </c>
       <c r="AC5" t="n">
-        <v>3858</v>
+        <v>2593.34</v>
       </c>
       <c r="AD5" t="n">
-        <v>3957</v>
+        <v>2772.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>2182</v>
+        <v>2336.36</v>
       </c>
       <c r="AF5" t="n">
-        <v>1074</v>
+        <v>1855.71</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1711.96</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2180.13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1081</v>
+        <v>2023</v>
       </c>
       <c r="C6" t="n">
-        <v>1060</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1265</v>
+        <v>2148.19</v>
       </c>
       <c r="E6" t="n">
-        <v>2496.12</v>
+        <v>2510.83</v>
       </c>
       <c r="F6" t="n">
-        <v>2359.67</v>
+        <v>2673.49</v>
       </c>
       <c r="G6" t="n">
-        <v>1332.86</v>
+        <v>1737.34</v>
       </c>
       <c r="H6" t="n">
-        <v>1092.77</v>
+        <v>1729.38</v>
       </c>
       <c r="I6" t="n">
-        <v>1540.06</v>
+        <v>1305.24</v>
       </c>
       <c r="J6" t="n">
-        <v>1842.56</v>
+        <v>1323.57</v>
       </c>
       <c r="K6" t="n">
-        <v>2427.23</v>
+        <v>2102.85</v>
       </c>
       <c r="L6" t="n">
-        <v>3370.15</v>
+        <v>2850.71</v>
       </c>
       <c r="M6" t="n">
-        <v>3511.04</v>
+        <v>2839.31</v>
       </c>
       <c r="N6" t="n">
-        <v>2489.06</v>
+        <v>2136.03</v>
       </c>
       <c r="O6" t="n">
-        <v>2026.77</v>
+        <v>1524.36</v>
       </c>
       <c r="P6" t="n">
-        <v>2339.44</v>
+        <v>1730.56</v>
       </c>
       <c r="Q6" t="n">
-        <v>2192.86</v>
+        <v>1880.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2259.83</v>
+        <v>2282</v>
       </c>
       <c r="S6" t="n">
-        <v>2687.43</v>
+        <v>2694.47</v>
       </c>
       <c r="T6" t="n">
-        <v>2596.83</v>
+        <v>2317.72</v>
       </c>
       <c r="U6" t="n">
-        <v>1501.58</v>
+        <v>2012.89</v>
       </c>
       <c r="V6" t="n">
-        <v>1400.94</v>
+        <v>1640.73</v>
       </c>
       <c r="W6" t="n">
-        <v>1250.94</v>
+        <v>1622.03</v>
       </c>
       <c r="X6" t="n">
-        <v>1297.78</v>
+        <v>1707.85</v>
       </c>
       <c r="Y6" t="n">
-        <v>1756.93</v>
+        <v>1569.31</v>
       </c>
       <c r="Z6" t="n">
-        <v>2306.3</v>
+        <v>2461.27</v>
       </c>
       <c r="AA6" t="n">
-        <v>2065.47</v>
+        <v>2723.49</v>
       </c>
       <c r="AB6" t="n">
-        <v>1056.47</v>
+        <v>2174.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>1423.04</v>
+        <v>1682.07</v>
       </c>
       <c r="AD6" t="n">
-        <v>1332.66</v>
+        <v>1591.51</v>
       </c>
       <c r="AE6" t="n">
-        <v>1453.6</v>
+        <v>990.24</v>
       </c>
       <c r="AF6" t="n">
+        <v>1385.42</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2359.58</v>
+      </c>
+      <c r="AH6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Dec</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2013.82</v>
+        <v>2023</v>
       </c>
       <c r="C7" t="n">
-        <v>2167.28</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>2413.05</v>
+        <v>2536.47</v>
       </c>
       <c r="E7" t="n">
-        <v>1245.1</v>
+        <v>1966.56</v>
       </c>
       <c r="F7" t="n">
-        <v>1267.94</v>
+        <v>1983.69</v>
       </c>
       <c r="G7" t="n">
-        <v>1708.6</v>
+        <v>1961.89</v>
       </c>
       <c r="H7" t="n">
-        <v>1816.3</v>
+        <v>2143.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1957.34</v>
+        <v>2396.32</v>
       </c>
       <c r="J7" t="n">
-        <v>2172.97</v>
+        <v>2813.02</v>
       </c>
       <c r="K7" t="n">
-        <v>2178.52</v>
+        <v>3105.58</v>
       </c>
       <c r="L7" t="n">
-        <v>1728.45</v>
+        <v>2116.08</v>
       </c>
       <c r="M7" t="n">
-        <v>1528.1</v>
+        <v>1238.87</v>
       </c>
       <c r="N7" t="n">
-        <v>1431.96</v>
+        <v>1595.34</v>
       </c>
       <c r="O7" t="n">
-        <v>1235.86</v>
+        <v>1019.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1299.45</v>
+        <v>1161.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>1515.59</v>
+        <v>1529.54</v>
       </c>
       <c r="R7" t="n">
-        <v>1966.61</v>
+        <v>1706.38</v>
       </c>
       <c r="S7" t="n">
-        <v>1566.94</v>
+        <v>1173.18</v>
       </c>
       <c r="T7" t="n">
-        <v>1122.85</v>
+        <v>1045.66</v>
       </c>
       <c r="U7" t="n">
-        <v>924.2</v>
+        <v>942.17</v>
       </c>
       <c r="V7" t="n">
-        <v>1060.46</v>
+        <v>1487.41</v>
       </c>
       <c r="W7" t="n">
-        <v>1498.91</v>
+        <v>1325.94</v>
       </c>
       <c r="X7" t="n">
-        <v>1199.33</v>
+        <v>1329.34</v>
       </c>
       <c r="Y7" t="n">
-        <v>1585.29</v>
+        <v>1261.66</v>
       </c>
       <c r="Z7" t="n">
-        <v>889.1899999999999</v>
+        <v>993.03</v>
       </c>
       <c r="AA7" t="n">
-        <v>853.99</v>
+        <v>782.01</v>
       </c>
       <c r="AB7" t="n">
-        <v>930.4</v>
+        <v>1058.48</v>
       </c>
       <c r="AC7" t="n">
-        <v>1286.89</v>
+        <v>1568.02</v>
       </c>
       <c r="AD7" t="n">
-        <v>1536.4</v>
+        <v>1657.23</v>
       </c>
       <c r="AE7" t="n">
-        <v>2451.1</v>
+        <v>2998.42</v>
       </c>
       <c r="AF7" t="n">
-        <v>2528.23</v>
+        <v>2868.54</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2112.45</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1279.32</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Jan</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1599.57</v>
+        <v>2023</v>
       </c>
       <c r="C8" t="n">
-        <v>1549.11</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>1217.86</v>
+        <v>1354.38</v>
       </c>
       <c r="E8" t="n">
-        <v>1523.08</v>
+        <v>1132.31</v>
       </c>
       <c r="F8" t="n">
-        <v>2132.95</v>
+        <v>1386.69</v>
       </c>
       <c r="G8" t="n">
-        <v>2255.47</v>
+        <v>2086.67</v>
       </c>
       <c r="H8" t="n">
-        <v>2296.76</v>
+        <v>2117.22</v>
       </c>
       <c r="I8" t="n">
-        <v>1332.12</v>
+        <v>1384.59</v>
       </c>
       <c r="J8" t="n">
-        <v>1217.88</v>
+        <v>1314.62</v>
       </c>
       <c r="K8" t="n">
-        <v>1227.79</v>
+        <v>1388.83</v>
       </c>
       <c r="L8" t="n">
-        <v>1400.66</v>
+        <v>1446.65</v>
       </c>
       <c r="M8" t="n">
-        <v>1767.97</v>
+        <v>1681.61</v>
       </c>
       <c r="N8" t="n">
-        <v>2528.91</v>
+        <v>2784.67</v>
       </c>
       <c r="O8" t="n">
-        <v>2702.44</v>
+        <v>2974</v>
       </c>
       <c r="P8" t="n">
-        <v>1901.71</v>
+        <v>1945.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>1492.6</v>
+        <v>1854.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1036.32</v>
+        <v>2138.27</v>
       </c>
       <c r="S8" t="n">
-        <v>942.85</v>
+        <v>1629.24</v>
       </c>
       <c r="T8" t="n">
-        <v>1431.18</v>
+        <v>1848.69</v>
       </c>
       <c r="U8" t="n">
-        <v>1755.35</v>
+        <v>2709.85</v>
       </c>
       <c r="V8" t="n">
-        <v>2159.82</v>
+        <v>1950.59</v>
       </c>
       <c r="W8" t="n">
-        <v>1007.45</v>
+        <v>1401.14</v>
       </c>
       <c r="X8" t="n">
-        <v>859.77</v>
+        <v>1240.57</v>
       </c>
       <c r="Y8" t="n">
-        <v>709.8099999999999</v>
+        <v>1613.94</v>
       </c>
       <c r="Z8" t="n">
-        <v>940.33</v>
+        <v>1711.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>1956.17</v>
+        <v>1942.38</v>
       </c>
       <c r="AB8" t="n">
-        <v>2741.1</v>
+        <v>1982.44</v>
       </c>
       <c r="AC8" t="n">
-        <v>2549.49</v>
+        <v>2734.48</v>
       </c>
       <c r="AD8" t="n">
-        <v>1799.21</v>
+        <v>1795.98</v>
       </c>
       <c r="AE8" t="n">
-        <v>1003.05</v>
+        <v>1394.2</v>
       </c>
       <c r="AF8" t="n">
-        <v>975.8100000000001</v>
+        <v>1604.38</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1643.43</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1971.46</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Feb</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1165.21</v>
+        <v>2023</v>
       </c>
       <c r="C9" t="n">
-        <v>1514.11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>2100.82</v>
+        <v>2567.91</v>
       </c>
       <c r="E9" t="n">
-        <v>2641.99</v>
+        <v>3050.39</v>
       </c>
       <c r="F9" t="n">
-        <v>1485.32</v>
+        <v>2621.9</v>
       </c>
       <c r="G9" t="n">
-        <v>1646.96</v>
+        <v>1664.91</v>
       </c>
       <c r="H9" t="n">
-        <v>1450.48</v>
+        <v>1494.68</v>
       </c>
       <c r="I9" t="n">
-        <v>1594.93</v>
+        <v>1258.03</v>
       </c>
       <c r="J9" t="n">
-        <v>1886</v>
+        <v>1655.66</v>
       </c>
       <c r="K9" t="n">
-        <v>2439.54</v>
+        <v>2068.23</v>
       </c>
       <c r="L9" t="n">
-        <v>2820.3</v>
+        <v>2438.67</v>
       </c>
       <c r="M9" t="n">
-        <v>1700.08</v>
+        <v>2195.07</v>
       </c>
       <c r="N9" t="n">
-        <v>1498.16</v>
+        <v>2313.82</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.12</v>
+        <v>2268.25</v>
       </c>
       <c r="P9" t="n">
-        <v>1550.53</v>
+        <v>2240.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1840.42</v>
+        <v>2043.2</v>
       </c>
       <c r="R9" t="n">
-        <v>2588.75</v>
+        <v>3046.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2505.78</v>
+        <v>3137.73</v>
       </c>
       <c r="T9" t="n">
-        <v>2047.98</v>
+        <v>1421.52</v>
       </c>
       <c r="U9" t="n">
-        <v>1423.86</v>
+        <v>2160.68</v>
       </c>
       <c r="V9" t="n">
-        <v>1396.24</v>
+        <v>2046.51</v>
       </c>
       <c r="W9" t="n">
-        <v>1412.21</v>
+        <v>2125.82</v>
       </c>
       <c r="X9" t="n">
-        <v>1650.95</v>
+        <v>2375.73</v>
       </c>
       <c r="Y9" t="n">
-        <v>2596.89</v>
+        <v>3089.02</v>
       </c>
       <c r="Z9" t="n">
-        <v>2581.61</v>
+        <v>2842.62</v>
       </c>
       <c r="AA9" t="n">
-        <v>1795.81</v>
+        <v>1773.76</v>
       </c>
       <c r="AB9" t="n">
-        <v>1283.44</v>
+        <v>1892.77</v>
       </c>
       <c r="AC9" t="n">
-        <v>1458.54</v>
+        <v>2188.46</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>2432.22</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>2241.65</v>
       </c>
       <c r="AF9" t="n">
+        <v>3226.44</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>3172.79</v>
+      </c>
+      <c r="AH9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Mar</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1544.81</v>
+        <v>2023</v>
       </c>
       <c r="C10" t="n">
-        <v>1743.87</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>2382.2</v>
+        <v>1279</v>
       </c>
       <c r="E10" t="n">
-        <v>2767.42</v>
+        <v>818.6</v>
       </c>
       <c r="F10" t="n">
-        <v>2210.8</v>
+        <v>1018.8</v>
       </c>
       <c r="G10" t="n">
-        <v>2016.15</v>
+        <v>1268.76</v>
       </c>
       <c r="H10" t="n">
-        <v>1603.56</v>
+        <v>2529.18</v>
       </c>
       <c r="I10" t="n">
-        <v>2077.22</v>
+        <v>4793.99</v>
       </c>
       <c r="J10" t="n">
-        <v>3380</v>
+        <v>4811.53</v>
       </c>
       <c r="K10" t="n">
-        <v>5409</v>
+        <v>2882.3</v>
       </c>
       <c r="L10" t="n">
-        <v>5498</v>
+        <v>1492.84</v>
       </c>
       <c r="M10" t="n">
-        <v>3980</v>
+        <v>1393.53</v>
       </c>
       <c r="N10" t="n">
-        <v>3096</v>
+        <v>1877.47</v>
       </c>
       <c r="O10" t="n">
-        <v>2811</v>
+        <v>3536.59</v>
       </c>
       <c r="P10" t="n">
-        <v>2810.45</v>
+        <v>4814.17</v>
       </c>
       <c r="Q10" t="n">
-        <v>3764.7</v>
+        <v>4815.53</v>
       </c>
       <c r="R10" t="n">
-        <v>5130.83</v>
+        <v>2872.58</v>
       </c>
       <c r="S10" t="n">
-        <v>4760.35</v>
+        <v>1795.92</v>
       </c>
       <c r="T10" t="n">
-        <v>2391.05</v>
+        <v>2057.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1057.05</v>
+        <v>2330.52</v>
       </c>
       <c r="V10" t="n">
-        <v>1123.21</v>
+        <v>3677.1</v>
       </c>
       <c r="W10" t="n">
-        <v>2013.88</v>
+        <v>4926.56</v>
       </c>
       <c r="X10" t="n">
-        <v>2487.2</v>
+        <v>4887.41</v>
       </c>
       <c r="Y10" t="n">
-        <v>2964.8</v>
+        <v>3145.74</v>
       </c>
       <c r="Z10" t="n">
-        <v>2963.76</v>
+        <v>2305.56</v>
       </c>
       <c r="AA10" t="n">
-        <v>2039.38</v>
+        <v>1681.26</v>
       </c>
       <c r="AB10" t="n">
-        <v>2078.52</v>
+        <v>2535.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>2044.33</v>
+        <v>3471.88</v>
       </c>
       <c r="AD10" t="n">
-        <v>2493.45</v>
+        <v>4488.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>2252.55</v>
+        <v>4776.11</v>
       </c>
       <c r="AF10" t="n">
-        <v>2763.49</v>
+        <v>3031.05</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1256.27</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1595.24</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Apr</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2785.23</v>
+        <v>2023</v>
       </c>
       <c r="C11" t="n">
-        <v>2119.07</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>1685.46</v>
+        <v>2316.82</v>
       </c>
       <c r="E11" t="n">
-        <v>1789.18</v>
+        <v>3489.6</v>
       </c>
       <c r="F11" t="n">
-        <v>1809.45</v>
+        <v>4694.73</v>
       </c>
       <c r="G11" t="n">
-        <v>2183.22</v>
+        <v>4343.48</v>
       </c>
       <c r="H11" t="n">
-        <v>2830.51</v>
+        <v>2517.81</v>
       </c>
       <c r="I11" t="n">
-        <v>2427.86</v>
+        <v>1659.57</v>
       </c>
       <c r="J11" t="n">
-        <v>1724.51</v>
+        <v>1847.19</v>
       </c>
       <c r="K11" t="n">
-        <v>1097.92</v>
+        <v>1998.28</v>
       </c>
       <c r="L11" t="n">
-        <v>1572.46</v>
+        <v>2929.11</v>
       </c>
       <c r="M11" t="n">
-        <v>1926.88</v>
+        <v>4001.16</v>
       </c>
       <c r="N11" t="n">
-        <v>2385.46</v>
+        <v>3729.25</v>
       </c>
       <c r="O11" t="n">
-        <v>3079.85</v>
+        <v>1696.4</v>
       </c>
       <c r="P11" t="n">
-        <v>3104.01</v>
+        <v>1316.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>2602.41</v>
+        <v>1464.97</v>
       </c>
       <c r="R11" t="n">
-        <v>2002.03</v>
+        <v>1814.65</v>
       </c>
       <c r="S11" t="n">
-        <v>2036.8</v>
+        <v>2727.19</v>
       </c>
       <c r="T11" t="n">
-        <v>2278.68</v>
+        <v>2582.23</v>
       </c>
       <c r="U11" t="n">
-        <v>2469.47</v>
+        <v>3072.66</v>
       </c>
       <c r="V11" t="n">
-        <v>2930.76</v>
+        <v>2035.24</v>
       </c>
       <c r="W11" t="n">
-        <v>3039.45</v>
+        <v>1404.15</v>
       </c>
       <c r="X11" t="n">
-        <v>2252.4</v>
+        <v>1527.12</v>
       </c>
       <c r="Y11" t="n">
-        <v>2045.93</v>
+        <v>1508.78</v>
       </c>
       <c r="Z11" t="n">
-        <v>2332.84</v>
+        <v>2005.46</v>
       </c>
       <c r="AA11" t="n">
-        <v>2304.94</v>
+        <v>2548.42</v>
       </c>
       <c r="AB11" t="n">
-        <v>2607.25</v>
+        <v>2177.13</v>
       </c>
       <c r="AC11" t="n">
-        <v>2835.24</v>
+        <v>1435.77</v>
       </c>
       <c r="AD11" t="n">
-        <v>2761.37</v>
+        <v>1295.39</v>
       </c>
       <c r="AE11" t="n">
-        <v>2279.3</v>
+        <v>1553.64</v>
       </c>
       <c r="AF11" t="n">
+        <v>1800.54</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2026.97</v>
+      </c>
+      <c r="AH11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1873.48</v>
+        <v>2023</v>
       </c>
       <c r="C12" t="n">
-        <v>1722.61</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>2096.95</v>
+        <v>2524.33</v>
       </c>
       <c r="E12" t="n">
-        <v>2445.82</v>
+        <v>2656.88</v>
       </c>
       <c r="F12" t="n">
-        <v>2908.14</v>
+        <v>1622.09</v>
       </c>
       <c r="G12" t="n">
-        <v>3068.36</v>
+        <v>1216.65</v>
       </c>
       <c r="H12" t="n">
-        <v>2222.98</v>
+        <v>967.75</v>
       </c>
       <c r="I12" t="n">
-        <v>1860.31</v>
+        <v>1298.64</v>
       </c>
       <c r="J12" t="n">
-        <v>1462.23</v>
+        <v>1332.16</v>
       </c>
       <c r="K12" t="n">
-        <v>1553.22</v>
+        <v>2705.86</v>
       </c>
       <c r="L12" t="n">
-        <v>1783.02</v>
+        <v>2581.91</v>
       </c>
       <c r="M12" t="n">
-        <v>2821.87</v>
+        <v>1548.03</v>
       </c>
       <c r="N12" t="n">
-        <v>2728.8</v>
+        <v>1436.84</v>
       </c>
       <c r="O12" t="n">
-        <v>1711.45</v>
+        <v>1439.99</v>
       </c>
       <c r="P12" t="n">
-        <v>1687.09</v>
+        <v>1526.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>2412.61</v>
+        <v>1148.19</v>
       </c>
       <c r="R12" t="n">
-        <v>2186.6</v>
+        <v>1623.44</v>
       </c>
       <c r="S12" t="n">
-        <v>2233.65</v>
+        <v>1685.84</v>
       </c>
       <c r="T12" t="n">
-        <v>2905.55</v>
+        <v>1246.03</v>
       </c>
       <c r="U12" t="n">
-        <v>2600.11</v>
+        <v>876.02</v>
       </c>
       <c r="V12" t="n">
-        <v>2005.35</v>
+        <v>817.76</v>
       </c>
       <c r="W12" t="n">
-        <v>1629.19</v>
+        <v>850.8200000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>1581.36</v>
+        <v>976.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>1715.97</v>
+        <v>816.63</v>
       </c>
       <c r="Z12" t="n">
-        <v>1851.97</v>
+        <v>682.1799999999999</v>
       </c>
       <c r="AA12" t="n">
-        <v>2593.34</v>
+        <v>455.32</v>
       </c>
       <c r="AB12" t="n">
-        <v>2772.6</v>
+        <v>739.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>2336.36</v>
+        <v>700.29</v>
       </c>
       <c r="AD12" t="n">
-        <v>1855.71</v>
+        <v>954.62</v>
       </c>
       <c r="AE12" t="n">
-        <v>1711.96</v>
+        <v>1141.34</v>
       </c>
       <c r="AF12" t="n">
-        <v>2180.13</v>
+        <v>1688.74</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1940.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2988</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2148.19</v>
+        <v>2024</v>
       </c>
       <c r="C13" t="n">
-        <v>2510.83</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>2673.49</v>
+        <v>1347.4</v>
       </c>
       <c r="E13" t="n">
-        <v>1737.34</v>
+        <v>1144.72</v>
       </c>
       <c r="F13" t="n">
-        <v>1729.38</v>
+        <v>1267.87</v>
       </c>
       <c r="G13" t="n">
-        <v>1305.24</v>
+        <v>1217.12</v>
       </c>
       <c r="H13" t="n">
-        <v>1323.57</v>
+        <v>1578.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2102.85</v>
+        <v>1630.16</v>
       </c>
       <c r="J13" t="n">
-        <v>2850.71</v>
+        <v>1200.41</v>
       </c>
       <c r="K13" t="n">
-        <v>2839.31</v>
+        <v>1016.36</v>
       </c>
       <c r="L13" t="n">
-        <v>2136.03</v>
+        <v>1262.27</v>
       </c>
       <c r="M13" t="n">
-        <v>1524.36</v>
+        <v>1380.92</v>
       </c>
       <c r="N13" t="n">
-        <v>1730.56</v>
+        <v>1514.56</v>
       </c>
       <c r="O13" t="n">
-        <v>1880.75</v>
+        <v>1608.83</v>
       </c>
       <c r="P13" t="n">
-        <v>2282</v>
+        <v>1585.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>2694.47</v>
+        <v>1239</v>
       </c>
       <c r="R13" t="n">
-        <v>2317.72</v>
+        <v>1493.91</v>
       </c>
       <c r="S13" t="n">
-        <v>2012.89</v>
+        <v>919.36</v>
       </c>
       <c r="T13" t="n">
-        <v>1640.73</v>
+        <v>968.8</v>
       </c>
       <c r="U13" t="n">
-        <v>1622.03</v>
+        <v>1431.44</v>
       </c>
       <c r="V13" t="n">
-        <v>1707.85</v>
+        <v>1007.03</v>
       </c>
       <c r="W13" t="n">
-        <v>1569.31</v>
+        <v>1372.89</v>
       </c>
       <c r="X13" t="n">
-        <v>2461.27</v>
+        <v>1423.92</v>
       </c>
       <c r="Y13" t="n">
-        <v>2723.49</v>
+        <v>1182.14</v>
       </c>
       <c r="Z13" t="n">
-        <v>2174.9</v>
+        <v>1155.54</v>
       </c>
       <c r="AA13" t="n">
-        <v>1682.07</v>
+        <v>799.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>1591.51</v>
+        <v>962.84</v>
       </c>
       <c r="AC13" t="n">
-        <v>990.24</v>
+        <v>882.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>1385.42</v>
+        <v>1396.77</v>
       </c>
       <c r="AE13" t="n">
-        <v>2359.58</v>
+        <v>962.63</v>
       </c>
       <c r="AF13" t="n">
+        <v>647.3</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>841.7</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>950.37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>796.83</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1777.63</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1979.5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1085.22</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1053.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>942.84</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1086.31</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1377.81</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2214.59</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1998.83</v>
+      </c>
+      <c r="N14" t="n">
+        <v>847.8100000000001</v>
+      </c>
+      <c r="O14" t="n">
+        <v>952.91</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1281.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1227.24</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1671.87</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2068.04</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2869.95</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1697.78</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1130.07</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/past_rev.xlsx
+++ b/Output/past_rev.xlsx
@@ -594,16 +594,16 @@
         <v>37</v>
       </c>
       <c r="S2" t="n">
-        <v>187.99</v>
+        <v>39</v>
       </c>
       <c r="T2" t="n">
-        <v>662.37</v>
+        <v>183.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1543.51</v>
+        <v>512.76</v>
       </c>
       <c r="V2" t="n">
-        <v>2047.98</v>
+        <v>980.15</v>
       </c>
       <c r="W2" t="n">
         <v>1423.86</v>
@@ -1815,46 +1815,46 @@
         <v>942.84</v>
       </c>
       <c r="J14" t="n">
-        <v>1086.31</v>
+        <v>1123.31</v>
       </c>
       <c r="K14" t="n">
-        <v>1377.81</v>
+        <v>1416.81</v>
       </c>
       <c r="L14" t="n">
-        <v>2214.59</v>
+        <v>2263.59</v>
       </c>
       <c r="M14" t="n">
-        <v>1998.83</v>
+        <v>2047.83</v>
       </c>
       <c r="N14" t="n">
-        <v>847.8100000000001</v>
+        <v>886.8100000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>952.91</v>
+        <v>989.91</v>
       </c>
       <c r="P14" t="n">
-        <v>1281.75</v>
+        <v>1318.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1227.24</v>
+        <v>1264.24</v>
       </c>
       <c r="R14" t="n">
-        <v>1671.87</v>
+        <v>1710.87</v>
       </c>
       <c r="S14" t="n">
-        <v>2068.04</v>
+        <v>2117.04</v>
       </c>
       <c r="T14" t="n">
-        <v>2869.95</v>
+        <v>2918.95</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.78</v>
+        <v>1775.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1130.07</v>
+        <v>1273.37</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>428.78</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
